--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -2428,21 +2428,6 @@
     <t>0.4.2</t>
   </si>
   <si>
-    <t>bball</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/lib</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/measures</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2462,6 +2447,21 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -6798,7 +6798,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6845,7 +6845,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6856,7 +6856,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>614</v>
@@ -6867,7 +6867,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6949,7 +6949,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>654</v>
@@ -7191,7 +7191,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7219,7 +7219,7 @@
         <v>643</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7246,7 +7246,7 @@
         <v>645</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -10060,7 +10060,7 @@
         <v>459</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>632</v>
@@ -10098,7 +10098,7 @@
         <v>624</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>637</v>
@@ -10196,7 +10196,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>636</v>
@@ -10228,7 +10228,7 @@
         <v>642</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>635</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -6753,7 +6753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="15100" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2454,7 +2454,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -6754,7 +6754,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="15100" tabRatio="562"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -2238,33 +2238,9 @@
     <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
   <si>
-    <t>Ngrid Add Monthly Utility Data</t>
-  </si>
-  <si>
-    <t>NGridAddMonthlyUtilityData</t>
-  </si>
-  <si>
-    <t>Path to electric JSON</t>
-  </si>
-  <si>
-    <t>electric_json</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>../../../lib/calibration_data/electric_billed_usages.json</t>
-  </si>
-  <si>
-    <t>Path to gas JSON</t>
-  </si>
-  <si>
-    <t>gas_json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas_billed_usages.json</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -2455,6 +2431,78 @@
   </si>
   <si>
     <t>1.12.4</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
   </si>
 </sst>
 </file>
@@ -6753,21 +6801,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6776,7 +6824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6785,51 +6833,51 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6848,7 +6896,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6867,7 +6915,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6880,7 +6928,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6889,40 +6937,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6933,7 +6981,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>461</v>
       </c>
@@ -6944,7 +6992,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -6955,7 +7003,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>464</v>
       </c>
@@ -6966,7 +7014,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +7027,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>449</v>
       </c>
@@ -6987,11 +7035,11 @@
         <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>448</v>
       </c>
@@ -7008,7 +7056,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="31" customFormat="1">
+    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7020,7 +7068,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" s="31" customFormat="1">
+    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>562</v>
       </c>
@@ -7032,7 +7080,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" s="31" customFormat="1">
+    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>563</v>
       </c>
@@ -7044,7 +7092,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>564</v>
       </c>
@@ -7056,7 +7104,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>565</v>
       </c>
@@ -7068,7 +7116,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>566</v>
       </c>
@@ -7080,7 +7128,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>537</v>
       </c>
@@ -7090,7 +7138,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>539</v>
       </c>
@@ -7102,34 +7150,34 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B32" s="30">
         <v>0</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" s="31" customFormat="1">
+    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -7142,15 +7190,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -7167,7 +7215,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>31</v>
       </c>
@@ -7175,11 +7223,11 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
@@ -7194,7 +7242,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>644</v>
       </c>
@@ -7202,10 +7250,10 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7233,39 +7281,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z186"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="31"/>
-    <col min="17" max="17" width="11.5" style="31" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="31"/>
+    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
     <col min="18" max="18" width="23" style="31" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.1640625" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="31"/>
+    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="31"/>
     <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="31"/>
+    <col min="25" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7301,7 +7349,7 @@
       <c r="Y1" s="66"/>
       <c r="Z1" s="66"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7318,7 +7366,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7335,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7395,18 +7443,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1">
+    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>733</v>
+        <v>797</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>733</v>
+        <v>797</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7414,1010 +7462,977 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>734</v>
+        <v>798</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>735</v>
+        <v>799</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>738</v>
+        <v>801</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>739</v>
+        <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>741</v>
+        <v>803</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>742</v>
+        <v>804</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>775</v>
+        <v>732</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>805</v>
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>743</v>
+        <v>806</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>744</v>
+        <v>807</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>767</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="37" customFormat="1">
-      <c r="A9" s="37" t="b">
+      <c r="F11" s="63"/>
+      <c r="G11" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B13" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>767</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:26" s="45" customFormat="1">
-      <c r="A10" s="45" t="b">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1">
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="30" t="s">
+    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="30" t="s">
+      <c r="F24" s="63"/>
+      <c r="G24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" ht="15">
-      <c r="B12" s="40" t="s">
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D25" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
+      <c r="F25" s="50"/>
+      <c r="G25" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="42">
         <v>100</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M25" s="42">
         <v>15</v>
       </c>
-      <c r="N12" s="42">
-        <f>(L12-K12)/6</f>
+      <c r="N25" s="42">
+        <f>(L25-K25)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O25" s="42">
         <v>1</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R25" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="30" customFormat="1">
-      <c r="B13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="30" t="s">
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E26" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="F26" s="63"/>
+      <c r="G26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="56" customFormat="1">
-      <c r="B14" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="57" t="s">
+    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E27" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="58">
-        <v>0</v>
-      </c>
-      <c r="L14" s="58">
+      <c r="F27" s="63"/>
+      <c r="G27" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="K27" s="58">
+        <v>0</v>
+      </c>
+      <c r="L27" s="58">
         <v>0.1</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M27" s="58">
         <v>0.05</v>
       </c>
-      <c r="N14" s="58">
-        <f>(L14-K14)/6</f>
+      <c r="N27" s="58">
+        <f>(L27-K27)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O27" s="58">
         <v>0.01</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R27" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="30" t="s">
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E28" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" ht="15">
-      <c r="B16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="F28" s="63"/>
+      <c r="G28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>679</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1</v>
-      </c>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" s="46" customFormat="1">
-      <c r="A20" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" s="52" customFormat="1" ht="15">
-      <c r="B22" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>655</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="52">
-        <v>0</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54">
-        <v>-40</v>
-      </c>
-      <c r="L22" s="54">
-        <v>40</v>
-      </c>
-      <c r="M22" s="54">
-        <v>0</v>
-      </c>
-      <c r="N22" s="54">
-        <f>(L22-K22)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O22" s="54">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="52" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:18" ht="15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="Q24" s="39"/>
-    </row>
-    <row r="25" spans="1:18" ht="15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="39"/>
-    </row>
-    <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="Q26" s="39"/>
-    </row>
-    <row r="27" spans="1:18" ht="15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:18" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="Q28" s="39"/>
-    </row>
-    <row r="29" spans="1:18" ht="15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="30"/>
+        <v>62</v>
+      </c>
       <c r="I29" s="30">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" s="46" customFormat="1">
-      <c r="A30" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="64"/>
+      <c r="G32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="30">
+        <v>1</v>
+      </c>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J34" s="30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B32" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>658</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42">
-        <v>-80</v>
-      </c>
-      <c r="L32" s="42">
-        <v>80</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0</v>
-      </c>
-      <c r="N32" s="42">
-        <f>(L32-K32)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O32" s="42">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="52">
+        <v>0</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="54">
+        <v>40</v>
+      </c>
+      <c r="M35" s="54">
+        <v>0</v>
+      </c>
+      <c r="N35" s="54">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="54">
         <v>1</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="Q35" s="55"/>
+      <c r="R35" s="52" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E33" s="30" t="s">
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I33" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="30" customFormat="1">
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="30" customFormat="1">
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="30" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I35" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="30" customFormat="1">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="30" customFormat="1">
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I37" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="30" customFormat="1">
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="64"/>
+      <c r="G40" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I39" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>771</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="30" customFormat="1" ht="15">
+      <c r="H40" s="30"/>
+      <c r="I40" s="30">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F41" s="64"/>
       <c r="G41" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="64"/>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B42" s="40" t="s">
+      <c r="I44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>773</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>774</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="40" t="s">
+      <c r="D45" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I42" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42">
-        <v>0.78</v>
-      </c>
-      <c r="L42" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M42" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="N42" s="42">
-        <f>(L42-K42)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O42" s="42">
+      <c r="I45" s="40">
+        <v>0</v>
+      </c>
+      <c r="J45" s="43"/>
+      <c r="K45" s="42">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="42">
+        <v>80</v>
+      </c>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="42">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="42">
         <v>1</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R45" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="30" customFormat="1">
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="30" customFormat="1">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="E46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="64"/>
+      <c r="G46" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="30" customFormat="1">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="I46" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="F47" s="63"/>
+      <c r="G47" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="30" customFormat="1">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+      <c r="I47" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="64"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="30" t="s">
         <v>63</v>
       </c>
@@ -8425,41 +8440,38 @@
         <v>663</v>
       </c>
       <c r="I48" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="F49" s="63"/>
       <c r="G49" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I49" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="64"/>
+        <v>54</v>
+      </c>
+      <c r="F50" s="63"/>
       <c r="G50" s="30" t="s">
         <v>63</v>
       </c>
@@ -8467,198 +8479,201 @@
         <v>663</v>
       </c>
       <c r="I50" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>778</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>777</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>777</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>779</v>
+        <v>667</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F52" s="64"/>
       <c r="G52" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B53" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>780</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I53" s="40">
-        <v>4</v>
-      </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42">
-        <v>2</v>
-      </c>
-      <c r="L53" s="42">
-        <v>5</v>
-      </c>
-      <c r="M53" s="42">
-        <v>4</v>
-      </c>
-      <c r="N53" s="42">
-        <f>(L53-K53)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O53" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="R53" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>63</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I52" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>763</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F54" s="64"/>
       <c r="G54" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>766</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="42">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="42">
+        <v>1</v>
+      </c>
+      <c r="R55" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="I56" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E57" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="30" t="s">
+      <c r="F57" s="31"/>
+      <c r="G57" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
+      <c r="I57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="30" t="s">
+      <c r="F58" s="31"/>
+      <c r="G58" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I56" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="I58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E59" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="64"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
         <v>63</v>
       </c>
@@ -8666,39 +8681,36 @@
         <v>663</v>
       </c>
       <c r="I59" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" s="64"/>
       <c r="G60" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I60" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="30" t="s">
@@ -8708,177 +8720,157 @@
         <v>663</v>
       </c>
       <c r="I61" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I62" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>209</v>
+        <v>667</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I63" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="64"/>
+      <c r="G65" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="51" t="s">
+      <c r="I65" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J65" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B64" s="40" t="s">
+    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="40" t="s">
+      <c r="D66" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="F66" s="50"/>
+      <c r="G66" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I64" s="40">
-        <v>0</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L64" s="42">
-        <v>14</v>
-      </c>
-      <c r="M64" s="42">
-        <v>0</v>
-      </c>
-      <c r="N64" s="42">
-        <f>(L64-K64)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O64" s="42">
-        <v>1</v>
-      </c>
-      <c r="R64" s="40" t="s">
+      <c r="I66" s="40">
+        <v>4</v>
+      </c>
+      <c r="J66" s="43"/>
+      <c r="K66" s="42">
+        <v>2</v>
+      </c>
+      <c r="L66" s="42">
+        <v>5</v>
+      </c>
+      <c r="M66" s="42">
+        <v>4</v>
+      </c>
+      <c r="N66" s="42">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B65" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>784</v>
-      </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I65" s="40">
-        <v>0</v>
-      </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="42">
-        <v>-25</v>
-      </c>
-      <c r="L65" s="42">
-        <v>30</v>
-      </c>
-      <c r="M65" s="42">
-        <v>0</v>
-      </c>
-      <c r="N65" s="42">
-        <f>(L65-K65)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O65" s="42">
-        <v>1</v>
-      </c>
-      <c r="R65" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
+    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>126</v>
       </c>
       <c r="F67" s="64"/>
       <c r="G67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I67" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I67" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="30" t="s">
@@ -8891,1073 +8883,1376 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15">
+    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I69" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H70" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I70" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="30" t="s">
+      <c r="F71" s="64"/>
+      <c r="G71" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I70" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="I71" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="30" t="s">
+      <c r="F72" s="64"/>
+      <c r="G72" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H72" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I72" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="30" customFormat="1">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="30" t="s">
+      <c r="F73" s="64"/>
+      <c r="G73" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="I73" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E74" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="30" t="s">
+      <c r="F74" s="64"/>
+      <c r="G74" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H74" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I74" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="46" customFormat="1">
-      <c r="A74" s="46" t="b">
+    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B75" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="64"/>
+      <c r="G76" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="G77" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77" s="40">
+        <v>0</v>
+      </c>
+      <c r="J77" s="43"/>
+      <c r="K77" s="42">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="42">
+        <v>14</v>
+      </c>
+      <c r="M77" s="42">
+        <v>0</v>
+      </c>
+      <c r="N77" s="42">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="42">
+        <v>1</v>
+      </c>
+      <c r="R77" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>776</v>
+      </c>
+      <c r="F78" s="50"/>
+      <c r="G78" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I78" s="40">
+        <v>0</v>
+      </c>
+      <c r="J78" s="43"/>
+      <c r="K78" s="42">
+        <v>-25</v>
+      </c>
+      <c r="L78" s="42">
+        <v>30</v>
+      </c>
+      <c r="M78" s="42">
+        <v>0</v>
+      </c>
+      <c r="N78" s="42">
+        <f>(L78-K78)/6</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="O78" s="42">
+        <v>1</v>
+      </c>
+      <c r="R78" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="64"/>
+      <c r="G79" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="64"/>
+      <c r="G80" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I80" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I81" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="G82" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="63"/>
+      <c r="G84" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I84" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="G85" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I85" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="63"/>
+      <c r="G86" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I86" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E87" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B75" s="40" t="s">
+    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E88" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="40" t="s">
+      <c r="F88" s="50"/>
+      <c r="G88" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="I75" s="40">
-        <v>0</v>
-      </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="42">
+      <c r="I88" s="40">
+        <v>0</v>
+      </c>
+      <c r="J88" s="43"/>
+      <c r="K88" s="42">
         <v>-6</v>
       </c>
-      <c r="L75" s="42">
-        <v>2</v>
-      </c>
-      <c r="M75" s="42">
-        <v>0</v>
-      </c>
-      <c r="N75" s="42">
-        <f>(L75-K75)/6</f>
+      <c r="L88" s="42">
+        <v>2</v>
+      </c>
+      <c r="M88" s="42">
+        <v>0</v>
+      </c>
+      <c r="N88" s="42">
+        <f>(L88-K88)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O75" s="42">
+      <c r="O88" s="42">
         <v>1</v>
       </c>
-      <c r="R75" s="40" t="s">
+      <c r="R88" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B76" s="40" t="s">
+    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D89" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E89" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="40" t="s">
+      <c r="F89" s="50"/>
+      <c r="G89" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="40">
-        <v>0</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="42">
+      <c r="I89" s="40">
+        <v>0</v>
+      </c>
+      <c r="J89" s="43"/>
+      <c r="K89" s="42">
         <v>-6</v>
       </c>
-      <c r="L76" s="42">
+      <c r="L89" s="42">
         <v>3.9</v>
       </c>
-      <c r="M76" s="42">
-        <v>0</v>
-      </c>
-      <c r="N76" s="42">
-        <f>(L76-K76)/6</f>
+      <c r="M89" s="42">
+        <v>0</v>
+      </c>
+      <c r="N89" s="42">
+        <f>(L89-K89)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O76" s="42">
+      <c r="O89" s="42">
         <v>1</v>
       </c>
-      <c r="R76" s="40" t="s">
+      <c r="R89" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
-      <c r="B77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="31" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E90" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="63"/>
-      <c r="G77" s="31" t="s">
+      <c r="F90" s="63"/>
+      <c r="G90" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="15">
-      <c r="A78" s="49" t="b">
+      <c r="I90" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
-        <v>751</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="46" t="s">
+      <c r="B91" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="E91" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-    </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="50" t="s">
+      <c r="F91" s="46"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+    </row>
+    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50">
+      <c r="C92" s="50"/>
+      <c r="D92" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50">
         <v>1</v>
       </c>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50">
+      <c r="J92" s="50"/>
+      <c r="K92" s="50">
         <v>0.5</v>
       </c>
-      <c r="L79" s="50">
+      <c r="L92" s="50">
         <v>4.5</v>
       </c>
-      <c r="M79" s="42">
+      <c r="M92" s="42">
         <v>1.75</v>
       </c>
-      <c r="N79" s="40">
+      <c r="N92" s="40">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O79" s="50">
+      <c r="O92" s="50">
         <v>0.1</v>
       </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40" t="s">
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50" t="s">
+    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50" t="s">
+      <c r="C93" s="50"/>
+      <c r="D93" s="50" t="s">
+        <v>739</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50">
+        <v>1</v>
+      </c>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L93" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="M93" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N93" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="O93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50">
+        <v>1</v>
+      </c>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L94" s="50">
+        <v>3</v>
+      </c>
+      <c r="M94" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T94" s="31"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="46"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="E80" s="50" t="s">
-        <v>748</v>
-      </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50">
+      <c r="E96" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50">
         <v>1</v>
       </c>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="L80" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M80" s="42">
+      <c r="J96" s="50"/>
+      <c r="K96" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L96" s="50">
+        <v>4</v>
+      </c>
+      <c r="M96" s="42">
         <v>1.75</v>
       </c>
-      <c r="N80" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50">
-        <v>1</v>
-      </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="50">
-        <v>3</v>
-      </c>
-      <c r="M81" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N81" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O81" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="T81" s="31"/>
-    </row>
-    <row r="82" spans="1:20" ht="15">
-      <c r="A82" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="C82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-    </row>
-    <row r="83" spans="1:20" ht="15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50" t="s">
-        <v>755</v>
-      </c>
-      <c r="E83" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50">
-        <v>1</v>
-      </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L83" s="50">
-        <v>4</v>
-      </c>
-      <c r="M83" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N83" s="40">
+      <c r="N96" s="40">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O83" s="50">
+      <c r="O96" s="50">
         <v>0.1</v>
       </c>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40" t="s">
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50" t="s">
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="50"/>
+      <c r="B97" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50" t="s">
-        <v>756</v>
-      </c>
-      <c r="E84" s="50" t="s">
+      <c r="C97" s="50"/>
+      <c r="D97" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50">
+      <c r="E97" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50">
         <v>1</v>
       </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50">
+      <c r="J97" s="50"/>
+      <c r="K97" s="50">
         <v>0.5</v>
       </c>
-      <c r="L84" s="50">
+      <c r="L97" s="50">
         <v>4</v>
       </c>
-      <c r="M84" s="42">
+      <c r="M97" s="42">
         <v>1.75</v>
       </c>
-      <c r="N84" s="50">
+      <c r="N97" s="50">
         <v>0.25</v>
       </c>
-      <c r="O84" s="50">
+      <c r="O97" s="50">
         <v>0.1</v>
       </c>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40" t="s">
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50" t="s">
+    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="50"/>
+      <c r="B98" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="E85" s="50" t="s">
+      <c r="C98" s="50"/>
+      <c r="D98" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50">
+        <v>1</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L98" s="50">
+        <v>3</v>
+      </c>
+      <c r="M98" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N98" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O98" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="F100" s="63"/>
+      <c r="G100" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="I100" s="56">
+        <v>1</v>
+      </c>
+      <c r="J100" s="59"/>
+      <c r="K100" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="58">
+        <v>1</v>
+      </c>
+      <c r="M100" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="58">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="56" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="F101" s="50"/>
+      <c r="G101" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="43"/>
+      <c r="K101" s="42">
+        <v>0</v>
+      </c>
+      <c r="L101" s="42">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="42">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="42">
+        <f>(L101-K101)/6</f>
+        <v>500</v>
+      </c>
+      <c r="O101" s="42">
+        <v>50</v>
+      </c>
+      <c r="R101" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50">
-        <v>1</v>
-      </c>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L85" s="50">
-        <v>3</v>
-      </c>
-      <c r="M85" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N85" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O85" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>786</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>785</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>785</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="56" customFormat="1">
-      <c r="B87" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>787</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="I87" s="56">
-        <v>1</v>
-      </c>
-      <c r="J87" s="59"/>
-      <c r="K87" s="58">
-        <v>0.9</v>
-      </c>
-      <c r="L87" s="58">
-        <v>1</v>
-      </c>
-      <c r="M87" s="58">
-        <v>0.95</v>
-      </c>
-      <c r="N87" s="58">
-        <f>(L87-K87)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O87" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="R87" s="56" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15">
-      <c r="B88" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I88" s="40">
-        <v>1450</v>
-      </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="42">
-        <v>0</v>
-      </c>
-      <c r="L88" s="42">
-        <v>3000</v>
-      </c>
-      <c r="M88" s="42">
-        <v>1450</v>
-      </c>
-      <c r="N88" s="42">
-        <f>(L88-K88)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O88" s="42">
-        <v>50</v>
-      </c>
-      <c r="R88" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="E89" s="37" t="s">
+      <c r="C102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="F90" s="63"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="F91" s="47"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="F92" s="47"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="F93" s="47"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="F94" s="47"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="F95" s="47"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="F96" s="47"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="47"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="F98" s="47"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-    </row>
-    <row r="103" spans="6:10">
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F103" s="63"/>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
     </row>
-    <row r="104" spans="6:10">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F104" s="47"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
-    <row r="105" spans="6:10">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F105" s="47"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
     </row>
-    <row r="106" spans="6:10">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F106" s="47"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31"/>
     </row>
-    <row r="107" spans="6:10">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F107" s="47"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31"/>
     </row>
-    <row r="108" spans="6:10">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F108" s="47"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
     </row>
-    <row r="109" spans="6:10">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F109" s="47"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
     </row>
-    <row r="110" spans="6:10">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F110" s="47"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31"/>
     </row>
-    <row r="111" spans="6:10">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F111" s="47"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31"/>
     </row>
-    <row r="112" spans="6:10">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
-    <row r="113" spans="9:10">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113" s="31"/>
       <c r="J113" s="31"/>
     </row>
-    <row r="114" spans="9:10">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114" s="31"/>
       <c r="J114" s="31"/>
     </row>
-    <row r="115" spans="9:10">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115" s="31"/>
       <c r="J115" s="31"/>
     </row>
-    <row r="116" spans="9:10">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
     </row>
-    <row r="117" spans="9:10">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
     </row>
-    <row r="118" spans="9:10">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
     </row>
-    <row r="119" spans="9:10">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
     </row>
-    <row r="120" spans="9:10">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
     </row>
-    <row r="121" spans="9:10">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
     </row>
-    <row r="122" spans="9:10">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
     </row>
-    <row r="123" spans="9:10">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
     </row>
-    <row r="124" spans="9:10">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
     </row>
-    <row r="125" spans="9:10">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
     </row>
-    <row r="126" spans="9:10">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
     </row>
-    <row r="127" spans="9:10">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
     </row>
-    <row r="128" spans="9:10">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
     </row>
-    <row r="129" spans="9:10">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
     </row>
-    <row r="130" spans="9:10">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
     </row>
-    <row r="131" spans="9:10">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
     </row>
-    <row r="132" spans="9:10">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
     </row>
-    <row r="133" spans="9:10">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
     </row>
-    <row r="134" spans="9:10">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
     </row>
-    <row r="135" spans="9:10">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135" s="31"/>
       <c r="J135" s="31"/>
     </row>
-    <row r="136" spans="9:10">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
     </row>
-    <row r="137" spans="9:10">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
     </row>
-    <row r="138" spans="9:10">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
     </row>
-    <row r="139" spans="9:10">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
     </row>
-    <row r="140" spans="9:10">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
     </row>
-    <row r="141" spans="9:10">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141" s="31"/>
       <c r="J141" s="31"/>
     </row>
-    <row r="142" spans="9:10">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142" s="31"/>
       <c r="J142" s="31"/>
     </row>
-    <row r="143" spans="9:10">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143" s="31"/>
       <c r="J143" s="31"/>
     </row>
-    <row r="144" spans="9:10">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144" s="31"/>
       <c r="J144" s="31"/>
     </row>
-    <row r="145" spans="9:10">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
     </row>
-    <row r="146" spans="9:10">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
     </row>
-    <row r="147" spans="9:10">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
     </row>
-    <row r="148" spans="9:10">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
     </row>
-    <row r="149" spans="9:10">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
     </row>
-    <row r="150" spans="9:10">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
     </row>
-    <row r="151" spans="9:10">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
     </row>
-    <row r="152" spans="9:10">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
     </row>
-    <row r="153" spans="9:10">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
     </row>
-    <row r="154" spans="9:10">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
     </row>
-    <row r="155" spans="9:10">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
     </row>
-    <row r="156" spans="9:10">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
     </row>
-    <row r="157" spans="9:10">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
     </row>
-    <row r="158" spans="9:10">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
     </row>
-    <row r="159" spans="9:10">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
     </row>
-    <row r="160" spans="9:10">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
     </row>
-    <row r="161" spans="9:10">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
     </row>
-    <row r="162" spans="9:10">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
     </row>
-    <row r="163" spans="9:10">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
     </row>
-    <row r="164" spans="9:10">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
     </row>
-    <row r="165" spans="9:10">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
     </row>
-    <row r="166" spans="9:10">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
     </row>
-    <row r="167" spans="9:10">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
     </row>
-    <row r="168" spans="9:10">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
     </row>
-    <row r="169" spans="9:10">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
     </row>
-    <row r="170" spans="9:10">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
     </row>
-    <row r="171" spans="9:10">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
     </row>
-    <row r="172" spans="9:10">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
     </row>
-    <row r="173" spans="9:10">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
     </row>
-    <row r="174" spans="9:10">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174" s="31"/>
       <c r="J174" s="31"/>
     </row>
-    <row r="175" spans="9:10">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175" s="31"/>
       <c r="J175" s="31"/>
     </row>
-    <row r="176" spans="9:10">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
     </row>
-    <row r="177" spans="9:10">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
     </row>
-    <row r="178" spans="9:10">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
     </row>
-    <row r="179" spans="9:10">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
     </row>
-    <row r="180" spans="9:10">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
     </row>
-    <row r="181" spans="9:10">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
     </row>
-    <row r="182" spans="9:10">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
     </row>
-    <row r="183" spans="9:10">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
     </row>
-    <row r="184" spans="9:10">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
     </row>
-    <row r="185" spans="9:10">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
     </row>
-    <row r="186" spans="9:10">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
     </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I192" s="31"/>
+      <c r="J192" s="31"/>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I198" s="31"/>
+      <c r="J198" s="31"/>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA113"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -9980,22 +10275,22 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="31" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="31"/>
+    <col min="12" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="60"/>
       <c r="C1" s="5"/>
@@ -10011,12 +10306,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10049,12 +10344,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10088,7 +10383,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>637</v>
       </c>
@@ -10117,7 +10412,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>638</v>
       </c>
@@ -10147,12 +10442,12 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10179,12 +10474,12 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10211,7 +10506,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>682</v>
       </c>
@@ -10240,7 +10535,7 @@
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>684</v>
       </c>
@@ -10269,7 +10564,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>686</v>
       </c>
@@ -10297,7 +10592,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>688</v>
       </c>
@@ -10325,7 +10620,7 @@
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>690</v>
       </c>
@@ -10353,7 +10648,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>692</v>
       </c>
@@ -10381,7 +10676,7 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>694</v>
       </c>
@@ -10410,7 +10705,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>696</v>
       </c>
@@ -10439,7 +10734,7 @@
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>698</v>
       </c>
@@ -10468,7 +10763,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>700</v>
       </c>
@@ -10497,7 +10792,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>702</v>
       </c>
@@ -10526,7 +10821,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>704</v>
       </c>
@@ -10555,7 +10850,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>706</v>
       </c>
@@ -10584,7 +10879,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>708</v>
       </c>
@@ -10613,7 +10908,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>710</v>
       </c>
@@ -10642,7 +10937,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>713</v>
       </c>
@@ -10671,7 +10966,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>715</v>
       </c>
@@ -10700,7 +10995,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>717</v>
       </c>
@@ -10729,7 +11024,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>647</v>
       </c>
@@ -10758,7 +11053,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>649</v>
       </c>
@@ -10787,7 +11082,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>722</v>
       </c>
@@ -10815,7 +11110,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>723</v>
       </c>
@@ -10843,7 +11138,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>724</v>
       </c>
@@ -10871,7 +11166,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>726</v>
       </c>
@@ -10899,7 +11194,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>728</v>
       </c>
@@ -10927,7 +11222,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>730</v>
       </c>
@@ -10955,14 +11250,14 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -10978,14 +11273,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11001,14 +11296,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11024,13 +11319,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>
@@ -11045,175 +11340,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="30"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="30"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="30"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
     </row>
   </sheetData>
@@ -11235,19 +11530,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11266,7 +11561,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11287,7 +11582,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11310,7 +11605,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11333,7 +11628,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11356,7 +11651,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11379,7 +11674,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11402,7 +11697,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11425,7 +11720,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11448,7 +11743,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11471,7 +11766,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11490,7 +11785,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11511,7 +11806,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11534,7 +11829,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11557,7 +11852,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11580,7 +11875,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11603,7 +11898,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11626,7 +11921,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11649,7 +11944,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11672,7 +11967,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11695,7 +11990,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11714,7 +12009,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11737,7 +12032,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11760,7 +12055,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11783,7 +12078,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11806,7 +12101,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11829,7 +12124,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11852,7 +12147,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11875,7 +12170,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11898,7 +12193,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11921,7 +12216,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11940,7 +12235,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11961,7 +12256,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11984,7 +12279,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12007,7 +12302,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12030,7 +12325,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12053,7 +12348,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12076,7 +12371,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12099,7 +12394,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12122,7 +12417,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12145,7 +12440,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12164,7 +12459,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12185,7 +12480,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12208,7 +12503,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12231,7 +12526,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12254,7 +12549,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12277,7 +12572,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12300,7 +12595,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12323,7 +12618,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12346,7 +12641,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12369,7 +12664,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12388,7 +12683,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12409,7 +12704,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12432,7 +12727,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12455,7 +12750,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12478,7 +12773,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12501,7 +12796,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12524,7 +12819,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12547,7 +12842,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12570,7 +12865,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12593,7 +12888,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12612,7 +12907,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12633,7 +12928,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12658,7 +12953,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12681,7 +12976,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12704,7 +12999,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12727,7 +13022,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12750,7 +13045,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12773,7 +13068,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12796,7 +13091,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12819,7 +13114,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12842,7 +13137,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12861,7 +13156,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12882,7 +13177,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12905,7 +13200,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12930,7 +13225,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12953,7 +13248,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12976,7 +13271,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12999,7 +13294,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13022,7 +13317,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13045,7 +13340,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13068,7 +13363,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13091,7 +13386,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13114,7 +13409,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13137,7 +13432,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13160,7 +13455,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13179,7 +13474,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13202,7 +13497,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13225,7 +13520,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13248,7 +13543,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13271,7 +13566,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13294,7 +13589,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13317,7 +13612,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13340,7 +13635,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13363,7 +13658,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13386,7 +13681,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13409,7 +13704,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13428,7 +13723,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13453,7 +13748,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13472,7 +13767,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13493,7 +13788,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13518,7 +13813,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13537,7 +13832,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13560,7 +13855,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13585,7 +13880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13608,7 +13903,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13629,7 +13924,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13648,7 +13943,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13673,7 +13968,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13696,7 +13991,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13719,7 +14014,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13742,7 +14037,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13765,7 +14060,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13788,7 +14083,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13811,7 +14106,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13830,7 +14125,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13853,7 +14148,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13876,7 +14171,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13899,7 +14194,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13918,7 +14213,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13941,7 +14236,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13964,7 +14259,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13987,7 +14282,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14010,7 +14305,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14033,7 +14328,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14056,7 +14351,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14075,7 +14370,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14100,7 +14395,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14123,7 +14418,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14146,7 +14441,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14169,7 +14464,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14192,7 +14487,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14215,7 +14510,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14238,7 +14533,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14261,7 +14556,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14284,7 +14579,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14303,7 +14598,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14328,7 +14623,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14644,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14372,7 +14667,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14395,7 +14690,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14418,7 +14713,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14441,7 +14736,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14464,7 +14759,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14487,7 +14782,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14510,7 +14805,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14533,7 +14828,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14556,7 +14851,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14579,7 +14874,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14602,7 +14897,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14625,7 +14920,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14644,7 +14939,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14667,7 +14962,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14686,7 +14981,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14709,7 +15004,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14732,7 +15027,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14751,7 +15046,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14776,7 +15071,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14799,7 +15094,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14822,7 +15117,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14845,7 +15140,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14868,7 +15163,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14891,7 +15186,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14914,7 +15209,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14937,7 +15232,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14960,7 +15255,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14983,7 +15278,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15002,7 +15297,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15027,7 +15322,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15050,7 +15345,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15073,7 +15368,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15096,7 +15391,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15119,7 +15414,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15142,7 +15437,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15165,7 +15460,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15188,7 +15483,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15211,7 +15506,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15234,7 +15529,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15253,7 +15548,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15276,7 +15571,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15299,7 +15594,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15322,7 +15617,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15345,7 +15640,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15364,7 +15659,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15387,7 +15682,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15410,7 +15705,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15433,7 +15728,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15456,7 +15751,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15475,7 +15770,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15496,7 +15791,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15519,7 +15814,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15538,7 +15833,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15561,7 +15856,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15586,7 +15881,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15607,7 +15902,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15632,7 +15927,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15657,7 +15952,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15676,7 +15971,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15701,7 +15996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15724,7 +16019,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15747,7 +16042,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15770,7 +16065,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15793,7 +16088,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15816,7 +16111,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15839,7 +16134,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15862,7 +16157,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15885,7 +16180,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15904,7 +16199,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15929,7 +16224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15952,7 +16247,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15975,7 +16270,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15998,7 +16293,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16021,7 +16316,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16044,7 +16339,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16067,7 +16362,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16090,7 +16385,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16113,7 +16408,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16132,7 +16427,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16153,7 +16448,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16176,7 +16471,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16199,7 +16494,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16222,7 +16517,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16245,7 +16540,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16563,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16586,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16609,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16632,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16655,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16678,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16701,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16724,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16452,7 +16747,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16475,7 +16770,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16498,7 +16793,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16517,7 +16812,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16538,7 +16833,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16561,7 +16856,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16584,7 +16879,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16607,7 +16902,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16630,7 +16925,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16653,7 +16948,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16676,7 +16971,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16699,7 +16994,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16722,7 +17017,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16745,7 +17040,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16768,7 +17063,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16791,7 +17086,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16814,7 +17109,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16837,7 +17132,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16860,7 +17155,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16883,7 +17178,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16902,7 +17197,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16927,7 +17222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16950,7 +17245,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16973,7 +17268,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16996,7 +17291,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17019,7 +17314,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17038,7 +17333,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17063,7 +17358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17086,7 +17381,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17105,7 +17400,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17124,7 +17419,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17143,7 +17438,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17164,7 +17459,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17187,7 +17482,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17210,7 +17505,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17233,7 +17528,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17256,7 +17551,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17279,7 +17574,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17302,7 +17597,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17325,7 +17620,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17348,7 +17643,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17371,7 +17666,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17394,7 +17689,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17413,7 +17708,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17436,7 +17731,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17455,7 +17750,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17480,7 +17775,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17503,7 +17798,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17526,7 +17821,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17549,7 +17844,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17572,7 +17867,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17595,7 +17890,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17618,7 +17913,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17641,7 +17936,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17664,7 +17959,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17687,7 +17982,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17710,7 +18005,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17729,7 +18024,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17752,7 +18047,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17771,7 +18066,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17792,7 +18087,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17811,7 +18106,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17832,7 +18127,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17851,7 +18146,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17872,7 +18167,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17891,7 +18186,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17914,7 +18209,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17933,7 +18228,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17958,7 +18253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17981,7 +18276,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18004,7 +18299,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18027,7 +18322,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18050,7 +18345,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18073,7 +18368,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18096,7 +18391,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18119,7 +18414,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18142,7 +18437,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18161,7 +18456,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18184,7 +18479,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18207,7 +18502,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18230,7 +18525,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18253,7 +18548,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18272,7 +18567,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18295,7 +18590,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18318,7 +18613,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18343,7 +18638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18362,7 +18657,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18387,7 +18682,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18410,7 +18705,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18429,7 +18724,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18450,7 +18745,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18471,7 +18766,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18494,7 +18789,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18513,7 +18808,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18532,7 +18827,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18557,7 +18852,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18582,7 +18877,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18596,7 +18891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18619,7 +18914,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18639,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18659,7 +18954,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18679,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18696,7 +18991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18719,7 +19014,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18742,7 +19037,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18756,7 +19051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18779,7 +19074,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18802,7 +19097,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18822,7 +19117,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18842,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18859,7 +19154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18885,7 +19180,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18914,7 +19209,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18953,7 +19248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18967,7 +19262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18987,7 +19282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19001,7 +19296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19021,7 +19316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19041,7 +19336,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19061,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19081,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19101,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19121,7 +19416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19141,7 +19436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19161,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19181,7 +19476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19195,7 +19490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19215,7 +19510,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19235,7 +19530,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19251,7 +19546,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19277,7 +19572,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19318,7 +19613,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19332,7 +19627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19352,7 +19647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19366,7 +19661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19405,17 +19700,17 @@
       <selection activeCell="O17" sqref="O17:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19426,7 +19721,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>587</v>
       </c>
@@ -19440,7 +19735,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>590</v>
       </c>
@@ -19454,7 +19749,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>592</v>
       </c>
@@ -19468,7 +19763,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>594</v>
       </c>
@@ -19482,7 +19777,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>596</v>
       </c>
@@ -19496,7 +19791,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>438</v>
       </c>
@@ -19510,7 +19805,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>599</v>
       </c>
@@ -19524,7 +19819,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>601</v>
       </c>
@@ -19538,7 +19833,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>567</v>
       </c>
@@ -19552,7 +19847,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19566,7 +19861,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19577,8 +19872,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>545</v>
       </c>
@@ -19604,7 +19899,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -19645,7 +19940,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19686,7 +19981,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>540</v>
       </c>
@@ -19718,7 +20013,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>548</v>
       </c>
@@ -19750,7 +20045,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>547</v>
       </c>
@@ -19779,7 +20074,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>549</v>
       </c>
@@ -19811,7 +20106,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>550</v>
       </c>
@@ -19831,7 +20126,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>642</v>
       </c>
@@ -19854,7 +20149,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>556</v>
       </c>
@@ -19865,7 +20160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>537</v>
       </c>
@@ -19873,7 +20168,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>539</v>
       </c>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -2503,6 +2503,12 @@
   </si>
   <si>
     <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
   </si>
 </sst>
 </file>
@@ -7281,11 +7287,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD21"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7614,60 +7620,60 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="b">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>164</v>
+        <v>799</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7676,17 +7682,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>804</v>
+        <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7695,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>650</v>
+        <v>816</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7714,17 +7720,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>817</v>
+        <v>650</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7733,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>733</v>
+        <v>808</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>734</v>
+        <v>809</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>767</v>
+      <c r="I19" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7752,17 +7758,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7771,199 +7777,200 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>811</v>
+        <v>735</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I22" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="b">
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="b">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="30" t="s">
+    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="30" t="s">
+      <c r="F25" s="63"/>
+      <c r="G25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="40" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="42">
-        <v>0</v>
-      </c>
-      <c r="L25" s="42">
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+      <c r="L26" s="42">
         <v>100</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M26" s="42">
         <v>15</v>
       </c>
-      <c r="N25" s="42">
-        <f>(L25-K25)/6</f>
+      <c r="N26" s="42">
+        <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O26" s="42">
         <v>1</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R26" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30" t="s">
+    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="30" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I27" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="57" t="s">
+    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E28" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="56" t="s">
+      <c r="F28" s="63"/>
+      <c r="G28" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="K27" s="58">
-        <v>0</v>
-      </c>
-      <c r="L27" s="58">
+      <c r="I28" s="56">
+        <v>0</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0</v>
+      </c>
+      <c r="L28" s="58">
         <v>0.1</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M28" s="58">
         <v>0.05</v>
       </c>
-      <c r="N27" s="58">
-        <f>(L27-K27)/6</f>
+      <c r="N28" s="58">
+        <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O27" s="58">
+      <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R27" s="56" t="s">
+      <c r="R28" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="30" t="s">
+    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
         <v>62</v>
       </c>
@@ -7976,10 +7983,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>69</v>
+        <v>680</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>46</v>
+        <v>679</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -7994,10 +8001,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="30" t="s">
@@ -8012,132 +8019,123 @@
         <v>21</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="64"/>
       <c r="G32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I33" s="30">
         <v>1</v>
       </c>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="b">
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="30" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30" t="s">
+      <c r="H35" s="30"/>
+      <c r="I35" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J35" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="Q34" s="39"/>
-    </row>
-    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="52" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="52" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="52">
-        <v>0</v>
-      </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54">
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54">
         <v>-40</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L36" s="54">
         <v>40</v>
       </c>
-      <c r="M35" s="54">
-        <v>0</v>
-      </c>
-      <c r="N35" s="54">
-        <f>(L35-K35)/6</f>
+      <c r="M36" s="54">
+        <v>0</v>
+      </c>
+      <c r="N36" s="54">
+        <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O35" s="54">
+      <c r="O36" s="54">
         <v>1</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="52" t="s">
+      <c r="Q36" s="55"/>
+      <c r="R36" s="52" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
@@ -8145,11 +8143,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>47</v>
+      <c r="D37" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="64"/>
       <c r="G37" s="30" t="s">
@@ -8173,14 +8171,14 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="64"/>
       <c r="G38" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30">
@@ -8200,18 +8198,18 @@
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H39" s="30"/>
-      <c r="I39" s="30" t="b">
-        <v>1</v>
+      <c r="I39" s="30">
+        <v>0</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8227,18 +8225,18 @@
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="64"/>
       <c r="G40" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="30"/>
-      <c r="I40" s="30">
-        <v>15</v>
+      <c r="I40" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8254,18 +8252,18 @@
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="64"/>
       <c r="G41" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="30"/>
       <c r="I41" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8281,18 +8279,18 @@
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="64"/>
       <c r="G42" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="30"/>
       <c r="I42" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8301,117 +8299,123 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="39"/>
     </row>
-    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="b">
+    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="64"/>
+      <c r="G43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
         <v>1</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="Q43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E44" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="30" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I45" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J45" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="40" t="s">
+    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D46" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E46" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="40" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H46" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="40">
-        <v>0</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42">
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="43"/>
+      <c r="K46" s="42">
         <v>-80</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L46" s="42">
         <v>80</v>
       </c>
-      <c r="M45" s="42">
-        <v>0</v>
-      </c>
-      <c r="N45" s="42">
-        <f>(L45-K45)/6</f>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="42">
+        <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O46" s="42">
         <v>1</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="R46" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="30" t="s">
         <v>62</v>
       </c>
@@ -8427,17 +8431,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8448,16 +8452,19 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="63"/>
       <c r="G49" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I49" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8466,20 +8473,17 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="63"/>
       <c r="G50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I50" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I50" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8487,138 +8491,141 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="63"/>
       <c r="G51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I51" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H52" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I51" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="I52" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="30" t="s">
+      <c r="F53" s="64"/>
+      <c r="G53" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H53" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I53" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="b">
+    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B54" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C54" s="46" t="s">
         <v>764</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>764</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E54" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="30" t="s">
+    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="30" t="s">
+      <c r="F55" s="64"/>
+      <c r="G55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I55" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J55" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D56" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E56" s="40" t="s">
         <v>766</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="40" t="s">
+      <c r="F56" s="50"/>
+      <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H56" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I56" s="40">
         <v>0.8</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="42">
+      <c r="J56" s="43"/>
+      <c r="K56" s="42">
         <v>0.78</v>
       </c>
-      <c r="L55" s="42">
+      <c r="L56" s="42">
         <v>0.98</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M56" s="42">
         <v>0.8</v>
       </c>
-      <c r="N55" s="42">
-        <f>(L55-K55)/6</f>
+      <c r="N56" s="42">
+        <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O55" s="42">
+      <c r="O56" s="42">
         <v>1</v>
       </c>
-      <c r="R55" s="40" t="s">
+      <c r="R56" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8626,19 +8633,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I57" s="30">
+        <v>61</v>
+      </c>
+      <c r="I57" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8647,10 +8651,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="30" t="s">
@@ -8668,37 +8672,40 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I59" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H60" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="30" t="b">
+      <c r="I60" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8707,20 +8714,17 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I61" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8728,20 +8732,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="64"/>
       <c r="G62" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I62" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8749,117 +8753,120 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H64" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I64" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="b">
+    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B65" s="46" t="s">
         <v>770</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C65" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D65" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E65" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="30" t="s">
+      <c r="F66" s="64"/>
+      <c r="G66" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I66" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J65" s="30" t="s">
+      <c r="J66" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="40" t="s">
+    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D67" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E67" s="40" t="s">
         <v>773</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="40" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H67" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I67" s="40">
         <v>4</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="42">
-        <v>2</v>
-      </c>
-      <c r="L66" s="42">
+      <c r="J67" s="43"/>
+      <c r="K67" s="42">
+        <v>2</v>
+      </c>
+      <c r="L67" s="42">
         <v>5</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M67" s="42">
         <v>4</v>
       </c>
-      <c r="N66" s="42">
-        <f>(L66-K66)/6</f>
+      <c r="N67" s="42">
+        <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O66" s="42">
+      <c r="O67" s="42">
         <v>0.25</v>
       </c>
-      <c r="R66" s="40" t="s">
+      <c r="R67" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8867,19 +8874,16 @@
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I68" s="30">
+        <v>61</v>
+      </c>
+      <c r="I68" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8888,10 +8892,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="30" t="s">
@@ -8909,17 +8913,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="64"/>
       <c r="G70" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8930,16 +8934,19 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="64"/>
       <c r="G71" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I71" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8948,20 +8955,17 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="64"/>
       <c r="G72" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I72" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I72" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8969,20 +8973,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="64"/>
       <c r="G73" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I73" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8990,99 +8994,79 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="64"/>
       <c r="G74" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I74" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="G75" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="30" t="s">
+      <c r="H75" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I75" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="b">
+    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B76" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E76" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="30" t="s">
+    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="30" t="s">
+      <c r="F77" s="64"/>
+      <c r="G77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="51" t="s">
+      <c r="I77" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J77" s="30" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>774</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I77" s="40">
-        <v>0</v>
-      </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L77" s="42">
-        <v>14</v>
-      </c>
-      <c r="M77" s="42">
-        <v>0</v>
-      </c>
-      <c r="N77" s="42">
-        <f>(L77-K77)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O77" s="42">
-        <v>1</v>
-      </c>
-      <c r="R77" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9090,10 +9074,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>776</v>
+        <v>243</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="40" t="s">
@@ -9107,17 +9091,17 @@
       </c>
       <c r="J78" s="43"/>
       <c r="K78" s="42">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L78" s="42">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M78" s="42">
         <v>0</v>
       </c>
       <c r="N78" s="42">
         <f>(L78-K78)/6</f>
-        <v>9.1666666666666661</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="O78" s="42">
         <v>1</v>
@@ -9126,22 +9110,45 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="30" t="b">
-        <v>0</v>
+    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>776</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I79" s="40">
+        <v>0</v>
+      </c>
+      <c r="J79" s="43"/>
+      <c r="K79" s="42">
+        <v>-25</v>
+      </c>
+      <c r="L79" s="42">
+        <v>30</v>
+      </c>
+      <c r="M79" s="42">
+        <v>0</v>
+      </c>
+      <c r="N79" s="42">
+        <f>(L79-K79)/6</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="O79" s="42">
+        <v>1</v>
+      </c>
+      <c r="R79" s="40" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9149,19 +9156,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F80" s="64"/>
       <c r="G80" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I80" s="30">
+        <v>61</v>
+      </c>
+      <c r="I80" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9170,10 +9174,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F81" s="64"/>
       <c r="G81" s="30" t="s">
@@ -9191,37 +9195,40 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="30" t="s">
+      <c r="H83" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="63"/>
-      <c r="G83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="30" t="b">
+      <c r="I83" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9230,20 +9237,17 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F84" s="63"/>
       <c r="G84" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I84" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I84" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9251,20 +9255,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" s="63"/>
       <c r="G85" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I85" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9272,78 +9276,58 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F86" s="63"/>
       <c r="G86" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I86" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="63"/>
+      <c r="G87" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H87" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I87" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46" t="b">
+    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B88" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E88" s="46" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I88" s="40">
-        <v>0</v>
-      </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="42">
-        <v>-6</v>
-      </c>
-      <c r="L88" s="42">
-        <v>2</v>
-      </c>
-      <c r="M88" s="42">
-        <v>0</v>
-      </c>
-      <c r="N88" s="42">
-        <f>(L88-K88)/6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O88" s="42">
-        <v>1</v>
-      </c>
-      <c r="R88" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9351,10 +9335,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="40" t="s">
@@ -9371,14 +9355,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="42">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="M89" s="42">
         <v>0</v>
       </c>
       <c r="N89" s="42">
         <f>(L89-K89)/6</f>
-        <v>1.6500000000000001</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O89" s="42">
         <v>1</v>
@@ -9387,113 +9371,111 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="31" t="s">
+    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="50"/>
+      <c r="G90" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="I90" s="40">
+        <v>0</v>
+      </c>
+      <c r="J90" s="43"/>
+      <c r="K90" s="42">
+        <v>-6</v>
+      </c>
+      <c r="L90" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="M90" s="42">
+        <v>0</v>
+      </c>
+      <c r="N90" s="42">
+        <f>(L90-K90)/6</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="O90" s="42">
+        <v>1</v>
+      </c>
+      <c r="R90" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E91" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="63"/>
-      <c r="G90" s="31" t="s">
+      <c r="F91" s="63"/>
+      <c r="G91" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="b">
+      <c r="I91" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B92" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E92" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
-    </row>
-    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50">
-        <v>1</v>
-      </c>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L92" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M92" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N92" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O92" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F92" s="46"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
     </row>
     <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9505,7 +9487,7 @@
       </c>
       <c r="J93" s="50"/>
       <c r="K93" s="50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L93" s="50">
         <v>4.5</v>
@@ -9513,7 +9495,8 @@
       <c r="M93" s="42">
         <v>1.75</v>
       </c>
-      <c r="N93" s="50">
+      <c r="N93" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O93" s="50">
@@ -9532,10 +9515,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9547,111 +9530,110 @@
       </c>
       <c r="J94" s="50"/>
       <c r="K94" s="50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L94" s="50">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M94" s="42">
         <v>1.75</v>
       </c>
-      <c r="N94" s="42">
+      <c r="N94" s="50">
         <v>0.25</v>
       </c>
-      <c r="O94" s="42">
+      <c r="O94" s="50">
         <v>0.1</v>
       </c>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="T94" s="31"/>
-    </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="b">
+    </row>
+    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="50"/>
+      <c r="B95" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50">
         <v>1</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="J95" s="50"/>
+      <c r="K95" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="50">
+        <v>3</v>
+      </c>
+      <c r="M95" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T95" s="31"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E96" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50" t="s">
-        <v>747</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50">
-        <v>1</v>
-      </c>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L96" s="50">
-        <v>4</v>
-      </c>
-      <c r="M96" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N96" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O96" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9671,7 +9653,8 @@
       <c r="M97" s="42">
         <v>1.75</v>
       </c>
-      <c r="N97" s="50">
+      <c r="N97" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O97" s="50">
@@ -9690,10 +9673,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9708,159 +9691,196 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M98" s="42">
         <v>1.75</v>
       </c>
-      <c r="N98" s="42">
+      <c r="N98" s="50">
         <v>0.25</v>
       </c>
-      <c r="O98" s="42">
+      <c r="O98" s="50">
         <v>0.1</v>
       </c>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="b">
+    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="50"/>
+      <c r="B99" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50">
         <v>1</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="J99" s="50"/>
+      <c r="K99" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L99" s="50">
+        <v>3</v>
+      </c>
+      <c r="M99" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N99" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O99" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" s="46" t="s">
         <v>778</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C100" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D100" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E100" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="56" t="s">
+    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="56" t="s">
         <v>781</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E101" s="56" t="s">
         <v>779</v>
       </c>
-      <c r="F100" s="63"/>
-      <c r="G100" s="56" t="s">
+      <c r="F101" s="63"/>
+      <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="56" t="s">
+      <c r="H101" s="56" t="s">
         <v>659</v>
       </c>
-      <c r="I100" s="56">
+      <c r="I101" s="56">
         <v>1</v>
       </c>
-      <c r="J100" s="59"/>
-      <c r="K100" s="58">
+      <c r="J101" s="59"/>
+      <c r="K101" s="58">
         <v>0.9</v>
       </c>
-      <c r="L100" s="58">
+      <c r="L101" s="58">
         <v>1</v>
       </c>
-      <c r="M100" s="58">
+      <c r="M101" s="58">
         <v>0.95</v>
       </c>
-      <c r="N100" s="58">
-        <f>(L100-K100)/6</f>
+      <c r="N101" s="58">
+        <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O100" s="58">
+      <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R100" s="56" t="s">
+      <c r="R101" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="40" t="s">
+    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D102" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E102" s="40" t="s">
         <v>780</v>
       </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="40" t="s">
+      <c r="F102" s="50"/>
+      <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H102" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I101" s="40">
+      <c r="I102" s="40">
         <v>1450</v>
       </c>
-      <c r="J101" s="43"/>
-      <c r="K101" s="42">
-        <v>0</v>
-      </c>
-      <c r="L101" s="42">
+      <c r="J102" s="43"/>
+      <c r="K102" s="42">
+        <v>0</v>
+      </c>
+      <c r="L102" s="42">
         <v>3000</v>
       </c>
-      <c r="M101" s="42">
+      <c r="M102" s="42">
         <v>1450</v>
       </c>
-      <c r="N101" s="42">
-        <f>(L101-K101)/6</f>
+      <c r="N102" s="42">
+        <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O101" s="42">
+      <c r="O102" s="42">
         <v>50</v>
       </c>
-      <c r="R101" s="40" t="s">
+      <c r="R102" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="b">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B103" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E103" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F103" s="63"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="47"/>
+      <c r="F104" s="63"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
@@ -9900,6 +9920,7 @@
       <c r="J111" s="31"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F112" s="47"/>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
@@ -10251,8 +10272,12 @@
       <c r="I199" s="31"/>
       <c r="J199" s="31"/>
     </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I200" s="31"/>
+      <c r="J200" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA126"/>
+  <autoFilter ref="A2:AA127"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2430,9 +2430,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>1.12.4</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityData</t>
   </si>
   <si>
@@ -2509,6 +2506,9 @@
   </si>
   <si>
     <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>1.12.5</t>
   </si>
 </sst>
 </file>
@@ -6807,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6866,7 +6866,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7291,7 +7291,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7454,13 +7454,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7473,17 +7473,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>798</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>799</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7492,7 +7492,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7502,7 +7502,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7511,17 +7511,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>803</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7530,10 +7530,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>807</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
@@ -7549,17 +7549,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>809</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7606,17 +7606,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>811</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>812</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7625,17 +7625,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>821</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>822</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7644,13 +7644,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7663,17 +7663,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>798</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>799</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7682,7 +7682,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7692,7 +7692,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7701,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>803</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7720,10 +7720,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>807</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
@@ -7739,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>809</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7796,17 +7796,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>811</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>812</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J22" s="31"/>
     </row>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2508,7 +2508,7 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>1.12.5</t>
+    <t>1.13.4</t>
   </si>
 </sst>
 </file>
@@ -6807,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7289,7 +7289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD22"/>
     </sheetView>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="822">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2310,27 +2280,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2412,103 +2370,142 @@
     <t>Elec EUI</t>
   </si>
   <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>../Calibration_example/measures</t>
-  </si>
-  <si>
-    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../Calibration_example/lib</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityData</t>
-  </si>
-  <si>
-    <t>Path to JSON</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/electric.json</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Electric Bill</t>
-  </si>
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Consumption Unit</t>
-  </si>
-  <si>
-    <t>consumption_unit</t>
-  </si>
-  <si>
-    <t>data key name</t>
-  </si>
-  <si>
-    <t>data_key_name</t>
-  </si>
-  <si>
-    <t>tot_kwh</t>
-  </si>
-  <si>
-    <t>remove existing Utility Bill data</t>
-  </si>
-  <si>
-    <t>remove_existing_data</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas.json</t>
-  </si>
-  <si>
-    <t>Gas Bill</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>tot_therms</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataElectric</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataGas</t>
-  </si>
-  <si>
-    <t>Set RunPeriod</t>
-  </si>
-  <si>
-    <t>set_runperiod</t>
-  </si>
-  <si>
-    <t>1.13.4</t>
   </si>
 </sst>
 </file>
@@ -6808,7 +6805,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6844,7 +6841,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6855,7 +6852,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6866,7 +6863,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6877,7 +6874,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6926,7 +6923,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="33"/>
@@ -6948,7 +6945,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6959,10 +6956,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6970,10 +6967,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7158,13 +7155,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B32" s="30">
         <v>0</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7188,7 +7185,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>30</v>
@@ -7201,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7215,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>447</v>
@@ -7229,7 +7226,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7241,7 +7238,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7256,7 +7253,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7290,8 +7287,8 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD22"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7389,7 +7386,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7454,13 +7451,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7473,17 +7470,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7492,17 +7489,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7511,17 +7508,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7530,17 +7527,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7549,17 +7546,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7568,17 +7565,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7587,17 +7584,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7606,17 +7603,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7625,17 +7622,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7644,13 +7641,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7663,17 +7660,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7682,17 +7679,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7701,17 +7698,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7720,17 +7717,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7739,17 +7736,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7758,17 +7755,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7777,17 +7774,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7796,17 +7793,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7815,13 +7812,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7873,7 +7870,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7902,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7910,10 +7907,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7928,10 +7925,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -7957,7 +7954,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7965,10 +7962,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -7983,10 +7980,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8103,7 +8100,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8134,7 +8131,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8369,7 +8366,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8379,7 +8376,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8402,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8410,7 +8407,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8420,7 +8417,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8431,7 +8428,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8441,7 +8438,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8452,7 +8449,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8462,7 +8459,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8473,7 +8470,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8491,7 +8488,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8501,7 +8498,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8512,7 +8509,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8522,7 +8519,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8533,7 +8530,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8543,7 +8540,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8554,13 +8551,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8592,17 +8589,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8625,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8651,7 +8648,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8661,7 +8658,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8672,7 +8669,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8682,7 +8679,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8693,7 +8690,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8703,7 +8700,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8714,7 +8711,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8732,7 +8729,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8742,7 +8739,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8753,7 +8750,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8763,7 +8760,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8774,7 +8771,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8784,7 +8781,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8795,13 +8792,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8812,7 +8809,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8833,17 +8830,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8866,7 +8863,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8892,7 +8889,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8902,7 +8899,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8913,7 +8910,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8923,7 +8920,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8934,7 +8931,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8944,7 +8941,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8955,7 +8952,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8973,7 +8970,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8983,7 +8980,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8994,7 +8991,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9004,7 +9001,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9015,7 +9012,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9025,7 +9022,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9074,7 +9071,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9084,7 +9081,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9107,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9115,17 +9112,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9148,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9174,7 +9171,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9184,7 +9181,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9195,7 +9192,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9205,7 +9202,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9216,7 +9213,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9226,7 +9223,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9237,7 +9234,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9255,7 +9252,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9265,7 +9262,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9276,7 +9273,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9286,7 +9283,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9297,7 +9294,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9307,7 +9304,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9321,10 +9318,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9335,7 +9332,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9345,7 +9342,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9368,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9376,7 +9373,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9386,7 +9383,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9409,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9417,7 +9414,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9440,13 +9437,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9472,10 +9469,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9505,7 +9502,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9515,10 +9512,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9547,7 +9544,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9557,10 +9554,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9589,7 +9586,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9598,13 +9595,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9630,10 +9627,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9663,7 +9660,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9673,10 +9670,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9705,7 +9702,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9715,10 +9712,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9747,7 +9744,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9755,13 +9752,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9772,17 +9769,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9805,7 +9802,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9813,17 +9810,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9846,7 +9843,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9854,13 +9851,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10296,8 +10293,8 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10336,7 +10333,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10374,7 +10371,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10472,7 +10469,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10504,7 +10501,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10533,12 +10530,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10562,12 +10559,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10591,12 +10588,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10619,12 +10616,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10647,12 +10644,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10675,12 +10672,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10703,12 +10700,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10732,12 +10729,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10761,12 +10758,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10790,12 +10787,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10819,12 +10816,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10848,12 +10845,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10877,12 +10874,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10906,12 +10903,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10935,15 +10932,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10964,15 +10961,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10993,15 +10990,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11022,15 +11019,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11051,15 +11048,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>809</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11080,15 +11077,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>810</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11109,15 +11106,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>811</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11137,15 +11134,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>812</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11165,15 +11162,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11193,15 +11190,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11221,15 +11218,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>815</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11249,15 +11246,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11277,12 +11274,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>756</v>
+        <v>817</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11300,12 +11297,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11323,12 +11320,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>760</v>
+        <v>819</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11346,11 +11343,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>762</v>
+        <v>820</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -2506,6 +2506,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -6804,7 +6807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7286,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7812,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>808</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2463,9 +2463,6 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced</t>
   </si>
   <si>
@@ -2509,6 +2506,9 @@
   </si>
   <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6807,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6866,7 +6866,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6877,7 +6877,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -7289,7 +7289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -7815,13 +7815,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -11056,7 +11056,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11085,7 +11085,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11114,7 +11114,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>655</v>
@@ -11142,7 +11142,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>655</v>
@@ -11170,7 +11170,7 @@
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>655</v>
@@ -11198,7 +11198,7 @@
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>655</v>
@@ -11226,7 +11226,7 @@
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>655</v>
@@ -11254,7 +11254,7 @@
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>655</v>
@@ -11282,7 +11282,7 @@
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11305,7 +11305,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11328,7 +11328,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2509,6 +2506,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6807,7 +6807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6844,7 +6844,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6855,7 +6855,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6866,7 +6866,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6877,7 +6877,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6948,7 +6948,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6959,7 +6959,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -6970,7 +6970,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7158,13 +7158,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>743</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>744</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7201,7 +7201,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7256,7 +7256,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7289,9 +7289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7454,13 +7454,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7473,17 +7473,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7492,17 +7492,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7511,17 +7511,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7530,14 +7530,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7549,17 +7549,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>792</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>793</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7568,17 +7568,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7587,17 +7587,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7606,17 +7606,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7625,17 +7625,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7644,13 +7644,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7663,17 +7663,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7682,17 +7682,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7701,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7720,14 +7720,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7739,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>792</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>793</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7758,17 +7758,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7777,17 +7777,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7796,17 +7796,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7815,13 +7815,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7873,7 +7873,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7902,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7910,10 +7910,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7928,10 +7928,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -7957,7 +7957,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7965,10 +7965,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -7983,10 +7983,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8103,7 +8103,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8369,7 +8369,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8379,7 +8379,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8420,7 +8420,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8441,7 +8441,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8462,7 +8462,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8491,7 +8491,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8501,7 +8501,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8512,7 +8512,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8522,7 +8522,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8543,7 +8543,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8554,13 +8554,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>749</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>750</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8592,17 +8592,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>751</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>752</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8651,7 +8651,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8661,7 +8661,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8672,7 +8672,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8682,7 +8682,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8703,7 +8703,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8732,7 +8732,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8742,7 +8742,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8753,7 +8753,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8763,7 +8763,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8784,7 +8784,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8795,13 +8795,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8812,7 +8812,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8833,17 +8833,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>758</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>759</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8866,7 +8866,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8902,7 +8902,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8923,7 +8923,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8944,7 +8944,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8973,7 +8973,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8983,7 +8983,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8994,7 +8994,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9004,7 +9004,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9025,7 +9025,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9084,7 +9084,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9115,17 +9115,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>761</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>762</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9174,7 +9174,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9184,7 +9184,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9205,7 +9205,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9226,7 +9226,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9255,7 +9255,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9265,7 +9265,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9276,7 +9276,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9286,7 +9286,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9307,7 +9307,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9321,10 +9321,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9335,7 +9335,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9345,7 +9345,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9376,7 +9376,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9386,7 +9386,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9417,7 +9417,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9440,13 +9440,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9472,10 +9472,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9505,7 +9505,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9515,10 +9515,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9547,7 +9547,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9557,10 +9557,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9589,7 +9589,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9598,13 +9598,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9630,10 +9630,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9663,7 +9663,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9673,10 +9673,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9705,7 +9705,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9715,10 +9715,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9747,7 +9747,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9755,13 +9755,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9772,17 +9772,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9804,8 +9804,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9813,17 +9813,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9846,7 +9846,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>822</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9854,13 +9854,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10336,7 +10336,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10374,7 +10374,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10472,7 +10472,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10504,7 +10504,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10533,12 +10533,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10562,12 +10562,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10591,12 +10591,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10619,12 +10619,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10647,12 +10647,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10675,12 +10675,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10703,12 +10703,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10732,12 +10732,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10761,12 +10761,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10790,12 +10790,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10819,12 +10819,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10848,12 +10848,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10877,12 +10877,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10906,12 +10906,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10935,15 +10935,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10964,15 +10964,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10993,15 +10993,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11022,15 +11022,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11056,7 +11056,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11085,7 +11085,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11109,15 +11109,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11137,15 +11137,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11165,15 +11165,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11193,15 +11193,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11221,15 +11221,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11249,15 +11249,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11277,12 +11277,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11300,12 +11300,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11323,12 +11323,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11346,11 +11346,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="820">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2505,10 +2496,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4585,9 +4576,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6805,16 +6793,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6823,7 +6811,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6834,7 +6822,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6843,8 +6831,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>769</v>
+      <c r="B3" s="25" t="s">
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6854,8 +6842,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>779</v>
+      <c r="B4" s="24" t="s">
+        <v>776</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6863,57 +6851,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>821</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>819</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>819</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6925,20 +6913,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6947,328 +6935,303 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>768</v>
+      <c r="B12" s="24" t="s">
+        <v>765</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>775</v>
+      <c r="B13" s="24" t="s">
+        <v>772</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29">
+        <v>92</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="29">
+        <v>15</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="29">
+        <v>60</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="B26" s="29">
+        <v>60</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="30">
-        <v>92</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" s="30">
-        <v>15</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="B26" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B27" s="30">
-        <v>60</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="B28" s="30">
-        <v>60</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="B29" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="B31" s="31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="31" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="D44" s="2"/>
+      <c r="B41" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7289,34 +7252,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7327,33 +7290,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7363,12 +7326,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7388,8 +7351,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>770</v>
+      <c r="F3" s="61" t="s">
+        <v>767</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7416,13 +7379,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7449,646 +7412,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>802</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="D23" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>806</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>806</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="55" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="F32" s="63"/>
+      <c r="G32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="63"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8096,65 +8059,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="F36" s="63"/>
+      <c r="G36" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>822</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="51" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="F37" s="63"/>
+      <c r="G37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8162,26 +8125,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="F38" s="63"/>
+      <c r="G38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8189,26 +8152,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8216,26 +8179,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8243,26 +8206,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="63"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8270,26 +8233,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="F42" s="63"/>
+      <c r="G42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8297,26 +8260,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8324,1109 +8287,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="63"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="62"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="30" t="s">
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="63"/>
+      <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="63"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
+        <v>745</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>750</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>751</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="63"/>
+      <c r="G63" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="30" t="s">
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="63"/>
+      <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E67" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="C65" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="63"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="30" t="s">
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="63"/>
+      <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="63"/>
+      <c r="G74" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="30" t="s">
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="63"/>
+      <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="30" t="s">
+      <c r="F77" s="63"/>
+      <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>760</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="D79" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-25</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="63"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="64"/>
-      <c r="G82" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="30" t="s">
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-6</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>822</v>
+      <c r="R90" s="39" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="62"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9436,845 +9399,845 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4.5</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M94" s="42">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
+        <v>4</v>
+      </c>
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>822</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>4</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>822</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>822</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>763</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>762</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>762</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>766</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="E101" s="55" t="s">
+        <v>761</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="D102" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>50</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>822</v>
+      <c r="R102" s="39" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="62"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10302,26 +10265,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10335,11 +10298,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>771</v>
+      <c r="B2" s="64" t="s">
+        <v>768</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10351,40 +10314,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>772</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10396,1145 +10359,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>773</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30" t="b">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="b">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="F24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="H30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="I30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>810</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>811</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="30" t="b">
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>812</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="30" t="b">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="30" t="b">
+      <c r="H36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18907,10 +18870,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18921,10 +18884,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18933,10 +18896,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18944,10 +18907,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18964,10 +18927,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18984,10 +18947,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -19004,10 +18967,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -19021,10 +18984,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -19033,10 +18996,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -19044,10 +19007,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19056,10 +19019,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19067,10 +19030,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19081,10 +19044,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19093,10 +19056,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19104,10 +19067,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19116,10 +19079,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19127,10 +19090,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19147,10 +19110,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19167,10 +19130,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19184,10 +19147,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19211,10 +19174,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19223,10 +19186,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19240,10 +19203,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19278,10 +19241,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19292,10 +19255,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19506,10 +19469,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19520,10 +19483,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19540,10 +19503,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19560,10 +19523,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19576,10 +19539,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19589,10 +19552,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19603,10 +19566,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19643,10 +19606,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19657,10 +19620,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19677,10 +19640,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19691,10 +19654,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19746,130 +19709,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19880,10 +19843,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19894,66 +19857,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -19961,8 +19924,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -19976,232 +19939,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -2499,7 +2499,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6796,7 +6796,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6914,7 +6914,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="818">
   <si>
     <t>type</t>
   </si>
@@ -2248,12 +2248,6 @@
   </si>
   <si>
     <t>Roof thermal mass multiplier</t>
-  </si>
-  <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
   </si>
   <si>
     <t>../analysis</t>
@@ -6795,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6832,7 +6826,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6843,7 +6837,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6854,7 +6848,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6865,7 +6859,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6936,7 +6930,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6947,7 +6941,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>647</v>
@@ -6958,7 +6952,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>647</v>
@@ -7033,7 +7027,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -7045,7 +7039,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -7124,13 +7118,13 @@
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B30" s="29">
         <v>0</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D30" s="34"/>
     </row>
@@ -7167,7 +7161,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7195,7 +7189,7 @@
         <v>638</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7222,7 +7216,7 @@
         <v>640</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7252,9 +7246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7352,7 +7346,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7417,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>66</v>
@@ -7436,17 +7430,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7455,7 +7449,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7465,7 +7459,7 @@
         <v>718</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7474,17 +7468,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7493,10 +7487,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
@@ -7512,17 +7506,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7541,7 +7535,7 @@
         <v>718</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7560,7 +7554,7 @@
         <v>718</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7569,17 +7563,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7588,17 +7582,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7607,13 +7601,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>66</v>
@@ -7626,17 +7620,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7645,7 +7639,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7655,7 +7649,7 @@
         <v>718</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7664,17 +7658,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7683,10 +7677,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
@@ -7702,17 +7696,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7731,7 +7725,7 @@
         <v>718</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7750,7 +7744,7 @@
         <v>718</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7759,17 +7753,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7778,13 +7772,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7865,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7920,7 +7914,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="55" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8097,7 +8091,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="51" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8365,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8517,13 +8511,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>66</v>
@@ -8551,14 +8545,14 @@
       </c>
     </row>
     <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
-        <v>22</v>
+      <c r="B56" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="39" t="s">
@@ -8588,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8758,13 +8752,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>66</v>
@@ -8775,7 +8769,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
@@ -8792,14 +8786,14 @@
       </c>
     </row>
     <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
-        <v>22</v>
+      <c r="B67" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="39" t="s">
@@ -8829,7 +8823,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9033,11 +9027,11 @@
       </c>
     </row>
     <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
-        <v>22</v>
+      <c r="B78" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>243</v>
@@ -9070,18 +9064,18 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
-        <v>22</v>
+      <c r="B79" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F79" s="49"/>
       <c r="G79" s="39" t="s">
@@ -9111,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9294,8 +9288,8 @@
       </c>
     </row>
     <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
-        <v>22</v>
+      <c r="B89" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>661</v>
@@ -9331,12 +9325,12 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
-        <v>22</v>
+      <c r="B90" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>663</v>
@@ -9372,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9430,8 +9424,8 @@
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
-        <v>22</v>
+      <c r="B93" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C93" s="49"/>
       <c r="D93" s="49" t="s">
@@ -9468,13 +9462,13 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
-        <v>22</v>
+      <c r="B94" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49" t="s">
@@ -9510,13 +9504,13 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
-        <v>22</v>
+      <c r="B95" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49" t="s">
@@ -9552,7 +9546,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9588,8 +9582,8 @@
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
-        <v>22</v>
+      <c r="B97" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49" t="s">
@@ -9626,13 +9620,13 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
-        <v>22</v>
+      <c r="B98" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C98" s="49"/>
       <c r="D98" s="49" t="s">
@@ -9668,13 +9662,13 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
-        <v>22</v>
+      <c r="B99" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="49" t="s">
@@ -9710,7 +9704,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9718,13 +9712,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>66</v>
@@ -9735,10 +9729,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="55" t="s">
@@ -9768,18 +9762,18 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
-        <v>22</v>
+      <c r="B102" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="39" t="s">
@@ -9809,25 +9803,15 @@
         <v>50</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="37"/>
@@ -10299,7 +10283,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>627</v>
@@ -10337,7 +10321,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>632</v>
@@ -10435,7 +10419,7 @@
         <v>636</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>631</v>
@@ -10467,7 +10451,7 @@
         <v>637</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>630</v>
@@ -11019,7 +11003,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11048,7 +11032,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11077,7 +11061,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11105,7 +11089,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11133,7 +11117,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11161,7 +11145,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11189,7 +11173,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11217,7 +11201,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11240,12 +11224,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11263,12 +11247,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11286,12 +11270,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11309,11 +11293,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2445,45 +2445,6 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2494,6 +2455,45 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6848,7 +6848,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6859,7 +6859,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -7246,9 +7246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7772,13 +7772,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7914,7 +7914,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="55" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="51" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8823,7 +8823,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9064,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9366,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9462,7 +9462,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9504,7 +9504,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9546,7 +9546,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9620,7 +9620,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9662,7 +9662,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9704,7 +9704,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9762,7 +9762,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9803,7 +9803,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10242,9 +10242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11003,7 +11003,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11032,7 +11032,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11061,7 +11061,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11089,7 +11089,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11117,7 +11117,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11145,7 +11145,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11173,7 +11173,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11201,7 +11201,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11229,7 +11229,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11252,7 +11252,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11275,7 +11275,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6789,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7027,7 +7027,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -7247,7 +7247,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -10242,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="769">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2344,12 +2203,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>../Calibration_example/measures</t>
@@ -4523,7 +4376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4585,7 +4438,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6789,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -6826,7 +6678,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>764</v>
+        <v>717</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6837,7 +6689,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6848,7 +6700,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>804</v>
+        <v>755</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6859,7 +6711,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6872,11 +6724,11 @@
       <c r="B7" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6891,11 +6743,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6911,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6930,7 +6782,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>763</v>
+        <v>716</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6941,10 +6793,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6952,10 +6804,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7032,7 +6884,7 @@
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -7044,7 +6896,7 @@
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
@@ -7056,7 +6908,7 @@
       <c r="C24" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
@@ -7068,7 +6920,7 @@
       <c r="C25" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
@@ -7080,7 +6932,7 @@
       <c r="C26" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
@@ -7092,7 +6944,7 @@
       <c r="C27" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -7102,7 +6954,7 @@
         <v>536</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -7114,31 +6966,31 @@
       <c r="C29" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="B30" s="29">
         <v>0</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="D30" s="34"/>
+      <c r="C30" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
@@ -7148,7 +7000,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
@@ -7161,7 +7013,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7175,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>447</v>
@@ -7186,10 +7038,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7201,7 +7053,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
@@ -7210,13 +7062,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7284,7 +7136,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7296,21 +7148,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7325,7 +7177,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7345,8 +7197,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>765</v>
+      <c r="F3" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7406,41 +7258,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>728</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7449,17 +7301,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7468,17 +7320,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="F7" s="62"/>
+        <v>733</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7487,17 +7339,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7506,17 +7358,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>738</v>
+      </c>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7525,17 +7377,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>747</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>700</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7544,17 +7396,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>748</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>701</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7563,17 +7415,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>791</v>
+      <c r="I12" s="46" t="s">
+        <v>742</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7582,55 +7434,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>751</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>791</v>
+      <c r="I13" s="46" t="s">
+        <v>742</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>798</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F15" s="62"/>
+        <v>728</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7639,17 +7491,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>793</v>
+        <v>744</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7658,17 +7510,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="F17" s="62"/>
+        <v>733</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7677,17 +7529,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F18" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7696,17 +7548,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F19" s="62"/>
+        <v>738</v>
+      </c>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7715,17 +7567,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>747</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>700</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7734,17 +7586,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>748</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>701</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7753,53 +7605,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F22" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>796</v>
+      <c r="I22" s="46" t="s">
+        <v>747</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>802</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7813,7 +7665,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7825,41 +7677,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>803</v>
+      <c r="R26" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7867,12 +7719,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7880,41 +7732,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="55" t="s">
-        <v>803</v>
+      <c r="R28" s="54" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7922,12 +7774,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7940,12 +7792,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="63"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7963,7 +7815,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7981,7 +7833,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7999,7 +7851,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -8008,20 +7860,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8037,7 +7889,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8053,45 +7905,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="51" t="s">
-        <v>803</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="50" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8100,13 +7952,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8119,7 +7971,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8133,7 +7985,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8146,7 +7998,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8160,7 +8012,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8173,7 +8025,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8187,7 +8039,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8200,7 +8052,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8214,7 +8066,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8227,7 +8079,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8241,7 +8093,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8254,7 +8106,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8268,7 +8120,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8281,22 +8133,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8310,7 +8162,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8321,45 +8173,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>803</v>
+      <c r="R46" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8367,17 +8219,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8388,17 +8240,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8409,17 +8261,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8430,12 +8282,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8448,17 +8300,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8469,17 +8321,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8490,36 +8342,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>743</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>744</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>744</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8533,56 +8385,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>803</v>
+      <c r="R56" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8608,7 +8460,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8618,7 +8470,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8629,7 +8481,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8639,7 +8491,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8650,7 +8502,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8660,7 +8512,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8671,12 +8523,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8689,17 +8541,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8710,17 +8562,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8731,36 +8583,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>750</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>749</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>749</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8769,61 +8621,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>751</v>
+        <v>704</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>803</v>
+      <c r="R67" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8836,7 +8688,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8849,17 +8701,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8870,17 +8722,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8891,17 +8743,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8912,12 +8764,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8930,17 +8782,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -8951,17 +8803,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -8972,36 +8824,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9015,97 +8867,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R78" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-25</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>803</v>
+      <c r="R79" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9118,7 +8970,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9131,17 +8983,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9152,17 +9004,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9173,17 +9025,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9194,12 +9046,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9212,17 +9064,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9233,17 +9085,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9254,119 +9106,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R89" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B90" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-6</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>803</v>
+      <c r="R90" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9374,12 +9226,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9393,481 +9245,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4.5</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>803</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>4.5</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>803</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>803</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>754</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>4</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>803</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>803</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>761</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>714</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R101" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B102" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>50</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>803</v>
+      <c r="R102" s="38" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10240,11 +10092,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10264,7 +10116,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10282,11 +10134,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>766</v>
+      <c r="B2" s="63" t="s">
+        <v>719</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10320,11 +10172,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>767</v>
+      <c r="B3" s="63" t="s">
+        <v>720</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10352,18 +10204,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10386,16 +10238,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>757</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10416,19 +10267,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>768</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
@@ -10442,27 +10289,24 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>759</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
@@ -10474,23 +10318,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10502,63 +10346,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10566,27 +10408,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10594,27 +10436,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10622,21 +10464,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10644,27 +10484,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>693</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10672,28 +10507,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>694</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10701,28 +10530,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>695</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10730,619 +10551,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>742</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11419,69 +10722,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20100,7 +19340,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6641,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6879,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -6891,7 +6891,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -10094,7 +10094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2313,40 +2313,40 @@
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6641,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -10094,9 +10094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10272,7 +10272,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10301,7 +10301,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10329,7 +10329,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10357,7 +10357,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10385,7 +10385,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10413,7 +10413,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10441,7 +10441,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10469,7 +10469,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10492,7 +10492,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="774">
   <si>
     <t>type</t>
   </si>
@@ -2347,6 +2347,21 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>TournamentSize</t>
+  </si>
+  <si>
+    <t>Tournament Size</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4497,6 +4512,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6639,10 +6655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6879,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -6891,7 +6907,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -6900,180 +6916,202 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>561</v>
+        <v>772</v>
       </c>
       <c r="B24" s="29">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>580</v>
+        <v>773</v>
       </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B25" s="29">
-        <v>60</v>
+        <v>0.85</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B26" s="29">
         <v>60</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B27" s="29">
-        <v>0.8</v>
+        <v>60</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C28" s="29"/>
+        <v>564</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>581</v>
+      </c>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" s="30">
-        <v>2</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>569</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="B30" s="29">
-        <v>0</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32" s="28">
+        <v>1E+20</v>
+      </c>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A33" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B36" s="24" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D39" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B42" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C42" s="30" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="D42" s="2"/>
+    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7155,14 +7193,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -10094,7 +10132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -6657,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7013,7 +7013,7 @@
         <v>769</v>
       </c>
       <c r="B32" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -6657,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6895,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -6907,7 +6907,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -6943,7 +6943,7 @@
         <v>562</v>
       </c>
       <c r="B26" s="29">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>582</v>
@@ -6955,7 +6955,7 @@
         <v>563</v>
       </c>
       <c r="B27" s="29">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>583</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="776">
   <si>
     <t>type</t>
   </si>
@@ -2115,9 +2115,6 @@
     <t>exit_on_guideline14</t>
   </si>
   <si>
-    <t>1 is true</t>
-  </si>
-  <si>
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
@@ -2355,13 +2352,22 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>TournamentSize</t>
   </si>
   <si>
     <t>Tournament Size</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4456,9 +4462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4512,7 +4515,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6658,7 +6660,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6694,7 +6696,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6705,7 +6707,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6716,7 +6718,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6727,7 +6729,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6798,7 +6800,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6809,7 +6811,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6900,7 +6902,7 @@
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -6912,19 +6914,19 @@
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="D24" s="33"/>
+        <v>771</v>
+      </c>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
@@ -6936,7 +6938,7 @@
       <c r="C25" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
@@ -6948,7 +6950,7 @@
       <c r="C26" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
@@ -6960,7 +6962,7 @@
       <c r="C27" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -6972,7 +6974,7 @@
       <c r="C28" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -6981,8 +6983,10 @@
       <c r="B29" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
@@ -6992,9 +6996,9 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>775</v>
+      </c>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -7003,32 +7007,34 @@
       <c r="B31" s="29">
         <v>0</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="D31" s="33"/>
+      <c r="C31" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>771</v>
-      </c>
-      <c r="D33" s="33"/>
+      <c r="C33" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
@@ -7051,7 +7057,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7079,7 +7085,7 @@
         <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7106,7 +7112,7 @@
         <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7123,7 +7129,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7174,7 +7180,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7186,21 +7192,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7215,7 +7221,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7235,8 +7241,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>718</v>
+      <c r="F3" s="59" t="s">
+        <v>717</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7296,41 +7302,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="b">
+    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>748</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7339,17 +7345,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7358,17 +7364,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7377,12 +7383,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="30" t="s">
         <v>671</v>
       </c>
@@ -7396,17 +7402,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7420,12 +7426,12 @@
       <c r="E10" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>700</v>
+      <c r="I10" s="45" t="s">
+        <v>699</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7439,12 +7445,12 @@
       <c r="E11" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>701</v>
+      <c r="I11" s="45" t="s">
+        <v>700</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7453,17 +7459,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>742</v>
+      <c r="I12" s="45" t="s">
+        <v>741</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7472,55 +7478,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>742</v>
+      <c r="I13" s="45" t="s">
+        <v>741</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="b">
+    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7529,17 +7535,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7548,17 +7554,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7567,12 +7573,12 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="30" t="s">
         <v>671</v>
       </c>
@@ -7586,17 +7592,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7610,12 +7616,12 @@
       <c r="E20" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>700</v>
+      <c r="I20" s="45" t="s">
+        <v>699</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7629,12 +7635,12 @@
       <c r="E21" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>701</v>
+      <c r="I21" s="45" t="s">
+        <v>700</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7643,53 +7649,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>747</v>
+      <c r="I22" s="45" t="s">
+        <v>746</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>756</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>756</v>
-      </c>
-      <c r="E23" s="35" t="s">
+      <c r="B23" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7703,7 +7709,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7715,41 +7721,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39">
         <v>100</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>15</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="39">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
-        <v>754</v>
+      <c r="R26" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7762,7 +7768,7 @@
       <c r="E27" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7770,41 +7776,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
+    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="60"/>
+      <c r="G28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
         <v>0.1</v>
       </c>
-      <c r="M28" s="56">
+      <c r="M28" s="55">
         <v>0.05</v>
       </c>
-      <c r="N28" s="56">
+      <c r="N28" s="55">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="55">
         <v>0.01</v>
       </c>
-      <c r="R28" s="54" t="s">
-        <v>754</v>
+      <c r="R28" s="53" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7817,7 +7823,7 @@
       <c r="E29" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7835,7 +7841,7 @@
       <c r="E30" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7853,7 +7859,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7871,7 +7877,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7889,7 +7895,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7898,20 +7904,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
+    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7927,7 +7933,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -7943,45 +7949,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
+      <c r="I36" s="49">
+        <v>0</v>
+      </c>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51">
         <v>-40</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <v>40</v>
       </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
+      <c r="M36" s="51">
+        <v>0</v>
+      </c>
+      <c r="N36" s="51">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="51">
         <v>1</v>
       </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="50" t="s">
-        <v>754</v>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="49" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -7990,13 +7996,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8009,7 +8015,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8023,7 +8029,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8036,7 +8042,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8050,7 +8056,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8063,7 +8069,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="37"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8077,7 +8083,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8090,7 +8096,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8104,7 +8110,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8117,7 +8123,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8131,7 +8137,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8144,7 +8150,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8158,7 +8164,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8171,22 +8177,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8200,7 +8206,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8211,45 +8217,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39">
         <v>-80</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="39">
         <v>80</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="39">
         <v>1</v>
       </c>
-      <c r="R46" s="38" t="s">
-        <v>754</v>
+      <c r="R46" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8262,7 +8268,7 @@
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="62"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8283,7 +8289,7 @@
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
@@ -8304,7 +8310,7 @@
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
@@ -8325,7 +8331,7 @@
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8343,7 +8349,7 @@
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
@@ -8364,7 +8370,7 @@
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
@@ -8385,7 +8391,7 @@
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="62"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
@@ -8396,20 +8402,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
+    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="E54" s="44" t="s">
+      <c r="D54" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8423,56 +8429,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E56" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="47"/>
+      <c r="G56" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="37">
         <v>0.8</v>
       </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
+      <c r="J56" s="40"/>
+      <c r="K56" s="39">
         <v>0.78</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="39">
         <v>0.98</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="39">
         <v>0.8</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="39">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="39">
         <v>1</v>
       </c>
-      <c r="R56" s="38" t="s">
-        <v>754</v>
+      <c r="R56" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8566,7 +8572,7 @@
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="62"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8584,7 +8590,7 @@
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="62"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
@@ -8605,7 +8611,7 @@
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="62"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
@@ -8626,7 +8632,7 @@
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="62"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
@@ -8637,20 +8643,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
+    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="C65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>702</v>
-      </c>
-      <c r="E65" s="44" t="s">
+      <c r="C65" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8659,61 +8665,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="62"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="I66" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="E67" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="E67" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J67" s="40"/>
+      <c r="K67" s="39">
+        <v>2</v>
+      </c>
+      <c r="L67" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="39">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
-        <v>754</v>
+      <c r="R67" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8726,7 +8732,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="62"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8744,7 +8750,7 @@
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="62"/>
+      <c r="F69" s="61"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
@@ -8765,7 +8771,7 @@
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="62"/>
+      <c r="F70" s="61"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
@@ -8786,7 +8792,7 @@
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="62"/>
+      <c r="F71" s="61"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
@@ -8807,7 +8813,7 @@
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="62"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8825,7 +8831,7 @@
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="62"/>
+      <c r="F73" s="61"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
@@ -8846,7 +8852,7 @@
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="62"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
@@ -8867,7 +8873,7 @@
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="62"/>
+      <c r="F75" s="61"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
@@ -8878,20 +8884,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
+    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8905,97 +8911,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="62"/>
+      <c r="F77" s="61"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="49" t="s">
+      <c r="I77" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="E78" s="38" t="s">
+      <c r="D78" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I78" s="38">
-        <v>0</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="40">
+      <c r="I78" s="37">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="39">
         <v>-20</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="39">
         <v>14</v>
       </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
+      <c r="M78" s="39">
+        <v>0</v>
+      </c>
+      <c r="N78" s="39">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="39">
         <v>1</v>
       </c>
-      <c r="R78" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R78" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E79" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="E79" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
+      <c r="F79" s="47"/>
+      <c r="G79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
+      <c r="I79" s="37">
+        <v>0</v>
+      </c>
+      <c r="J79" s="40"/>
+      <c r="K79" s="39">
         <v>-25</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="39">
         <v>30</v>
       </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
+      <c r="M79" s="39">
+        <v>0</v>
+      </c>
+      <c r="N79" s="39">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="40">
+      <c r="O79" s="39">
         <v>1</v>
       </c>
-      <c r="R79" s="38" t="s">
-        <v>754</v>
+      <c r="R79" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9008,7 +9014,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="62"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9026,7 +9032,7 @@
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="61"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9053,7 @@
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="62"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
@@ -9068,7 +9074,7 @@
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="62"/>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
@@ -9089,7 +9095,7 @@
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="61"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9107,7 +9113,7 @@
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="61"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
@@ -9128,7 +9134,7 @@
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="61"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
@@ -9149,7 +9155,7 @@
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="61"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
@@ -9160,103 +9166,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
+    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="47"/>
+      <c r="G89" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I89" s="38">
-        <v>0</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="40">
+      <c r="I89" s="37">
+        <v>0</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="39">
         <v>-6</v>
       </c>
-      <c r="L89" s="40">
-        <v>2</v>
-      </c>
-      <c r="M89" s="40">
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
+      <c r="L89" s="39">
+        <v>2</v>
+      </c>
+      <c r="M89" s="39">
+        <v>0</v>
+      </c>
+      <c r="N89" s="39">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="39">
         <v>1</v>
       </c>
-      <c r="R89" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R89" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B90" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="47"/>
+      <c r="G90" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
+      <c r="I90" s="37">
+        <v>0</v>
+      </c>
+      <c r="J90" s="40"/>
+      <c r="K90" s="39">
         <v>-6</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="39">
         <v>3.9</v>
       </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
+      <c r="M90" s="39">
+        <v>0</v>
+      </c>
+      <c r="N90" s="39">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="40">
+      <c r="O90" s="39">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
-        <v>754</v>
+      <c r="R90" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9269,7 +9275,7 @@
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="61"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9283,481 +9289,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
+      <c r="A92" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48" t="s">
+      <c r="F93" s="47"/>
+      <c r="G93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>1</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48">
+      <c r="J93" s="47"/>
+      <c r="K93" s="47">
         <v>0.5</v>
       </c>
-      <c r="L93" s="48">
+      <c r="L93" s="47">
         <v>4.5</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
+      <c r="N93" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="48">
+      <c r="O93" s="47">
         <v>0.1</v>
       </c>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38" t="s">
-        <v>754</v>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48" t="s">
+      <c r="F94" s="47"/>
+      <c r="G94" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>1</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48">
+      <c r="J94" s="47"/>
+      <c r="K94" s="47">
         <v>0.1</v>
       </c>
-      <c r="L94" s="48">
+      <c r="L94" s="47">
         <v>4.5</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="47">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="47">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38" t="s">
-        <v>754</v>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="F95" s="47"/>
+      <c r="G95" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J95" s="47"/>
+      <c r="K95" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L95" s="47">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N95" s="39">
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O95" s="39">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
-        <v>754</v>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="37" t="s">
+        <v>753</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
+      <c r="A96" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47" t="s">
         <v>686</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48" t="s">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>1</v>
       </c>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48">
+      <c r="J97" s="47"/>
+      <c r="K97" s="47">
         <v>0.5</v>
       </c>
-      <c r="L97" s="48">
+      <c r="L97" s="47">
         <v>4</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="48">
+      <c r="O97" s="47">
         <v>0.1</v>
       </c>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38" t="s">
-        <v>754</v>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
+      <c r="C98" s="47"/>
+      <c r="D98" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48" t="s">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>1</v>
       </c>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48">
+      <c r="J98" s="47"/>
+      <c r="K98" s="47">
         <v>0.5</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="47">
         <v>4</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="47">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="47">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38" t="s">
-        <v>754</v>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
+      <c r="C99" s="47"/>
+      <c r="D99" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
+      <c r="J99" s="47"/>
+      <c r="K99" s="47">
         <v>0.5</v>
       </c>
-      <c r="L99" s="48">
+      <c r="L99" s="47">
         <v>3</v>
       </c>
-      <c r="M99" s="40">
+      <c r="M99" s="39">
         <v>1.75</v>
       </c>
-      <c r="N99" s="40">
+      <c r="N99" s="39">
         <v>0.25</v>
       </c>
-      <c r="O99" s="40">
+      <c r="O99" s="39">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="53" t="s">
         <v>711</v>
       </c>
-      <c r="C100" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>714</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
+      <c r="F101" s="60"/>
+      <c r="G101" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
+      <c r="I101" s="53">
         <v>1</v>
       </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
+      <c r="J101" s="56"/>
+      <c r="K101" s="55">
         <v>0.9</v>
       </c>
-      <c r="L101" s="56">
+      <c r="L101" s="55">
         <v>1</v>
       </c>
-      <c r="M101" s="56">
+      <c r="M101" s="55">
         <v>0.95</v>
       </c>
-      <c r="N101" s="56">
+      <c r="N101" s="55">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="55">
         <v>0.1</v>
       </c>
-      <c r="R101" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R101" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B102" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
+      <c r="D102" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="F102" s="47"/>
+      <c r="G102" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I102" s="38">
+      <c r="I102" s="37">
         <v>1450</v>
       </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
+      <c r="J102" s="40"/>
+      <c r="K102" s="39">
+        <v>0</v>
+      </c>
+      <c r="L102" s="39">
         <v>3000</v>
       </c>
-      <c r="M102" s="40">
+      <c r="M102" s="39">
         <v>1450</v>
       </c>
-      <c r="N102" s="40">
+      <c r="N102" s="39">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="40">
+      <c r="O102" s="39">
         <v>50</v>
       </c>
-      <c r="R102" s="38" t="s">
-        <v>754</v>
+      <c r="R102" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="60"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="45"/>
+      <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="45"/>
+      <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="45"/>
+      <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="45"/>
+      <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="45"/>
+      <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
+      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10154,7 +10160,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10172,8 +10178,8 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>719</v>
+      <c r="B2" s="62" t="s">
+        <v>718</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>624</v>
@@ -10210,8 +10216,8 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>720</v>
+      <c r="B3" s="62" t="s">
+        <v>719</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>626</v>
@@ -10278,10 +10284,10 @@
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10307,10 +10313,10 @@
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10336,10 +10342,10 @@
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10367,7 +10373,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10395,7 +10401,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10423,7 +10429,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10451,7 +10457,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10479,7 +10485,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10502,12 +10508,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10525,12 +10531,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10548,12 +10554,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10571,11 +10577,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="777">
   <si>
     <t>type</t>
   </si>
@@ -2368,6 +2368,9 @@
   </si>
   <si>
     <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>max queued jobs</t>
   </si>
 </sst>
 </file>
@@ -6660,7 +6663,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6897,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -6909,7 +6912,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -7029,7 +7032,7 @@
         <v>769</v>
       </c>
       <c r="B33" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>773</v>
@@ -7037,6 +7040,12 @@
       <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="B34" s="30">
+        <v>32</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -2112,9 +2112,6 @@
     <t>../analysis</t>
   </si>
   <si>
-    <t>exit_on_guideline14</t>
-  </si>
-  <si>
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
@@ -2187,9 +2184,6 @@
     <t>Baseboard Nominal Capacity (W)</t>
   </si>
   <si>
-    <t>SEB4 baseboard NSGA2 2013</t>
-  </si>
-  <si>
     <t>0.4.2</t>
   </si>
   <si>
@@ -2371,6 +2365,12 @@
   </si>
   <si>
     <t>max queued jobs</t>
+  </si>
+  <si>
+    <t>exit_on_guideline_14</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard NSGA2 2013 reorder</t>
   </si>
 </sst>
 </file>
@@ -6662,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6699,7 +6699,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6710,7 +6710,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6721,7 +6721,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6732,7 +6732,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6803,7 +6803,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>715</v>
+        <v>776</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6814,7 +6814,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D24" s="32"/>
     </row>
@@ -6987,7 +6987,7 @@
         <v>536</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D29" s="32"/>
     </row>
@@ -6999,49 +6999,49 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B34" s="30">
         <v>32</v>
@@ -7066,7 +7066,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7094,7 +7094,7 @@
         <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7121,7 +7121,7 @@
         <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7149,11 +7149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7251,7 +7251,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7316,13 +7316,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>66</v>
@@ -7335,17 +7335,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7354,7 +7354,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7364,7 +7364,7 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7373,17 +7373,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7392,10 +7392,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="30" t="s">
@@ -7411,17 +7411,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7440,7 +7440,7 @@
         <v>671</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7459,7 +7459,7 @@
         <v>671</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7468,17 +7468,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7487,17 +7487,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7506,13 +7506,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>66</v>
@@ -7525,17 +7525,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7544,7 +7544,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7554,7 +7554,7 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7563,17 +7563,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7582,10 +7582,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="30" t="s">
@@ -7601,17 +7601,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7630,7 +7630,7 @@
         <v>671</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7649,7 +7649,7 @@
         <v>671</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7658,181 +7658,180 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="b">
+    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>752</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>755</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>755</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="b">
+      <c r="B23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
+        <v>100</v>
+      </c>
+      <c r="M25" s="39">
+        <v>15</v>
+      </c>
+      <c r="N25" s="39">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37" t="s">
+      <c r="R25" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="39">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
-        <v>100</v>
-      </c>
-      <c r="M26" s="39">
-        <v>15</v>
-      </c>
-      <c r="N26" s="39">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="39">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
+    </row>
+    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>658</v>
       </c>
       <c r="F27" s="60"/>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>658</v>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="55">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="53" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
       </c>
       <c r="F28" s="60"/>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="K28" s="55">
-        <v>0</v>
-      </c>
-      <c r="L28" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="55">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="53" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="60"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7845,10 +7844,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
@@ -7863,10 +7862,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
@@ -7881,123 +7880,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="51">
+        <v>40</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="51">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>44</v>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="49" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="61"/>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="49">
-        <v>0</v>
-      </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="51">
-        <v>40</v>
-      </c>
-      <c r="M36" s="51">
-        <v>0</v>
-      </c>
-      <c r="N36" s="51">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="49" t="s">
-        <v>753</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8005,11 +8013,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="41" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="29" t="s">
@@ -8033,14 +8041,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="61"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8060,18 +8068,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="61"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8087,18 +8095,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="61"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8114,18 +8122,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8141,18 +8149,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8161,123 +8169,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="b">
+      <c r="B43" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="39">
+        <v>80</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="39">
         <v>1</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37" t="s">
+      <c r="R45" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="39">
-        <v>80</v>
-      </c>
-      <c r="M46" s="39">
-        <v>0</v>
-      </c>
-      <c r="N46" s="39">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="39">
-        <v>1</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="61"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="60"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8293,17 +8295,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8314,19 +8316,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="60"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8335,17 +8334,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8353,141 +8355,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="60"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="39">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R55" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="39">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="39">
-        <v>1</v>
-      </c>
-      <c r="R56" s="37" t="s">
-        <v>753</v>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8495,16 +8494,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8513,10 +8515,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8534,40 +8536,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="61"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8576,17 +8575,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="61"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8594,20 +8596,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="61"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8615,120 +8617,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="61"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="61"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="61"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>702</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="61"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66" s="37">
+        <v>4</v>
+      </c>
+      <c r="J66" s="40"/>
+      <c r="K66" s="39">
+        <v>2</v>
+      </c>
+      <c r="L66" s="39">
+        <v>5</v>
+      </c>
+      <c r="M66" s="39">
+        <v>4</v>
+      </c>
+      <c r="N66" s="39">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="37">
-        <v>4</v>
-      </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="39">
-        <v>2</v>
-      </c>
-      <c r="L67" s="39">
-        <v>5</v>
-      </c>
-      <c r="M67" s="39">
-        <v>4</v>
-      </c>
-      <c r="N67" s="39">
-        <f>(L67-K67)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O67" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="R67" s="37" t="s">
-        <v>753</v>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="61"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8736,16 +8735,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="61"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8754,10 +8756,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="61"/>
       <c r="G69" s="29" t="s">
@@ -8775,17 +8777,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="61"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8796,19 +8798,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="61"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8817,17 +8816,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="61"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8835,20 +8837,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="61"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8856,79 +8858,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="61"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="61"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="61"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="37">
+        <v>0</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="39">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="39">
+        <v>14</v>
+      </c>
+      <c r="M77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="61"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="37" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8939,7 +8961,7 @@
         <v>706</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="37" t="s">
@@ -8953,64 +8975,41 @@
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="39">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="39">
         <v>0</v>
       </c>
       <c r="N78" s="39">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="39">
         <v>1</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="37">
-        <v>0</v>
-      </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="39">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="39">
-        <v>30</v>
-      </c>
-      <c r="M79" s="39">
-        <v>0</v>
-      </c>
-      <c r="N79" s="39">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="39">
-        <v>1</v>
-      </c>
-      <c r="R79" s="37" t="s">
-        <v>753</v>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="61"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9018,16 +9017,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="61"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9036,10 +9038,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="61"/>
       <c r="G81" s="29" t="s">
@@ -9057,40 +9059,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="61"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="60"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9099,17 +9098,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="60"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9117,20 +9119,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="60"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9138,58 +9140,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="60"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="47"/>
+      <c r="G88" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="37">
+        <v>0</v>
+      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="39">
+        <v>2</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0</v>
+      </c>
+      <c r="N88" s="39">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>66</v>
+      <c r="R88" s="37" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9197,10 +9219,10 @@
         <v>21</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="37" t="s">
@@ -9217,127 +9239,129 @@
         <v>-6</v>
       </c>
       <c r="L89" s="39">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="39">
         <v>0</v>
       </c>
       <c r="N89" s="39">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="39">
         <v>1</v>
       </c>
       <c r="R89" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="60"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="37">
-        <v>0</v>
-      </c>
-      <c r="J90" s="40"/>
-      <c r="K90" s="39">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="39">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="39">
-        <v>0</v>
-      </c>
-      <c r="N90" s="39">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="39">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>1</v>
       </c>
-      <c r="R90" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="37">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="47" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47" t="s">
@@ -9349,7 +9373,7 @@
       </c>
       <c r="J93" s="47"/>
       <c r="K93" s="47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="47">
         <v>4.5</v>
@@ -9357,8 +9381,7 @@
       <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="37">
-        <f>1.5/6</f>
+      <c r="N93" s="47">
         <v>0.25</v>
       </c>
       <c r="O93" s="47">
@@ -9367,7 +9390,7 @@
       <c r="P93" s="37"/>
       <c r="Q93" s="37"/>
       <c r="R93" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9377,10 +9400,10 @@
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="47" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47" t="s">
@@ -9392,110 +9415,111 @@
       </c>
       <c r="J94" s="47"/>
       <c r="K94" s="47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="47">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="47">
+      <c r="N94" s="39">
         <v>0.25</v>
       </c>
-      <c r="O94" s="47">
+      <c r="O94" s="39">
         <v>0.1</v>
       </c>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
       <c r="R94" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47">
+      <c r="J96" s="47"/>
+      <c r="K96" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="47">
-        <v>3</v>
-      </c>
-      <c r="M95" s="39">
+      <c r="L96" s="47">
+        <v>4</v>
+      </c>
+      <c r="M96" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="39">
+      <c r="N96" s="37">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="39">
+      <c r="O96" s="47">
         <v>0.1</v>
       </c>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="47"/>
       <c r="G97" s="47" t="s">
@@ -9515,8 +9539,7 @@
       <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="37">
-        <f>1.5/6</f>
+      <c r="N97" s="47">
         <v>0.25</v>
       </c>
       <c r="O97" s="47">
@@ -9525,7 +9548,7 @@
       <c r="P97" s="37"/>
       <c r="Q97" s="37"/>
       <c r="R97" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9535,10 +9558,10 @@
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47" t="s">
@@ -9553,186 +9576,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="39">
         <v>0.25</v>
       </c>
-      <c r="O98" s="47">
+      <c r="O98" s="39">
         <v>0.1</v>
       </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
       <c r="R98" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="60"/>
+      <c r="G100" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="53">
+        <v>1</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="55">
+        <v>1</v>
+      </c>
+      <c r="M100" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="55">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="47"/>
+      <c r="G101" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="37">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="40"/>
+      <c r="K101" s="39">
+        <v>0</v>
+      </c>
+      <c r="L101" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="39">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="39">
+        <f>(L101-K101)/6</f>
+        <v>500</v>
+      </c>
+      <c r="O101" s="39">
+        <v>50</v>
+      </c>
+      <c r="R101" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="34" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47">
-        <v>1</v>
-      </c>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="47">
-        <v>3</v>
-      </c>
-      <c r="M99" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="37" t="s">
+      <c r="D102" s="34" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>713</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="53" t="s">
-        <v>642</v>
-      </c>
-      <c r="I101" s="53">
-        <v>1</v>
-      </c>
-      <c r="J101" s="56"/>
-      <c r="K101" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="55">
-        <v>1</v>
-      </c>
-      <c r="M101" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="55">
-        <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="R101" s="37" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>714</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>712</v>
-      </c>
-      <c r="F102" s="47"/>
-      <c r="G102" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="37">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="40"/>
-      <c r="K102" s="39">
-        <v>0</v>
-      </c>
-      <c r="L102" s="39">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="39">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="39">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="39">
-        <v>50</v>
-      </c>
-      <c r="R102" s="37" t="s">
-        <v>753</v>
-      </c>
+      <c r="E102" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
+      <c r="F103" s="60"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="60"/>
+      <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9772,7 +9757,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10124,12 +10108,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -10188,7 +10168,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>624</v>
@@ -10226,7 +10206,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>626</v>
@@ -10296,7 +10276,7 @@
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10325,7 +10305,7 @@
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10354,7 +10334,7 @@
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10382,7 +10362,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10410,7 +10390,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10438,7 +10418,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10466,7 +10446,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10494,7 +10474,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10517,12 +10497,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10540,12 +10520,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10563,12 +10543,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10586,11 +10566,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -2292,54 +2292,12 @@
     <t>default</t>
   </si>
   <si>
-    <t>Calibration Reports Enhanced</t>
-  </si>
-  <si>
     <t>uniform</t>
   </si>
   <si>
     <t>1.21.14</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
@@ -2370,7 +2328,49 @@
     <t>exit_on_guideline_14</t>
   </si>
   <si>
-    <t>SEB4 baseboard NSGA2 2013 reorder</t>
+    <t>CalibrationReportsEnhanced21</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced 21</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard NSGA2 2013 reorder 21</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6662,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6721,7 +6721,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6803,7 +6803,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6900,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D24" s="32"/>
     </row>
@@ -6987,7 +6987,7 @@
         <v>536</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="D29" s="32"/>
     </row>
@@ -6999,52 +6999,52 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="B31" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="B34" s="30">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -7153,7 +7153,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7800,7 +7800,7 @@
         <v>0.01</v>
       </c>
       <c r="R27" s="53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="Q35" s="52"/>
       <c r="R35" s="49" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>0.25</v>
       </c>
       <c r="R66" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="R77" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="R88" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
       <c r="P92" s="37"/>
       <c r="Q92" s="37"/>
       <c r="R92" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9390,7 +9390,7 @@
       <c r="P93" s="37"/>
       <c r="Q93" s="37"/>
       <c r="R93" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9432,7 +9432,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T94" s="30"/>
     </row>
@@ -9506,7 +9506,7 @@
       <c r="P96" s="37"/>
       <c r="Q96" s="37"/>
       <c r="R96" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9548,7 +9548,7 @@
       <c r="P97" s="37"/>
       <c r="Q97" s="37"/>
       <c r="R97" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9590,7 +9590,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9648,7 +9648,7 @@
         <v>0.1</v>
       </c>
       <c r="R100" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9689,7 +9689,7 @@
         <v>50</v>
       </c>
       <c r="R101" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -9697,13 +9697,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>231</v>
@@ -10129,7 +10129,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10276,7 +10276,7 @@
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10305,7 +10305,7 @@
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10334,7 +10334,7 @@
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10362,7 +10362,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10390,7 +10390,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10418,7 +10418,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10446,7 +10446,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10474,7 +10474,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10502,7 +10502,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10525,7 +10525,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10548,7 +10548,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_NSGA_2013.xlsx
+++ b/projects/SEB_calibration_NSGA_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2298,48 +2298,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
@@ -2371,6 +2332,45 @@
   </si>
   <si>
     <t>SEB4 baseboard NSGA2 2013 reorder</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6663,20 +6663,20 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6685,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6716,18 +6716,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6798,18 +6798,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6874,11 +6874,11 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>4</v>
       </c>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
         <v>560</v>
       </c>
@@ -6919,19 +6919,19 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
         <v>561</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>562</v>
       </c>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
         <v>563</v>
       </c>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
         <v>564</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
         <v>535</v>
       </c>
@@ -6987,11 +6987,11 @@
         <v>536</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="A30" s="30" t="s">
         <v>537</v>
       </c>
@@ -6999,56 +6999,56 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="30" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="30" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="A33" s="30" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D33" s="32"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="A34" s="30" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="B34" s="30">
         <v>32</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="30" customFormat="1">
       <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="30" customFormat="1">
       <c r="B43" s="25"/>
       <c r="D43" s="2"/>
     </row>
@@ -7138,7 +7138,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7156,32 +7155,32 @@
       <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7217,7 +7216,7 @@
       <c r="Y1" s="63"/>
       <c r="Z1" s="63"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7234,7 +7233,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="34" customFormat="1">
       <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
@@ -7330,7 +7329,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7349,7 +7348,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7368,7 +7367,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7387,7 +7386,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +7405,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7425,7 +7424,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7463,7 +7462,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7482,7 +7481,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7501,7 +7500,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="34" customFormat="1">
       <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
@@ -7520,7 +7519,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7539,7 +7538,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7558,7 +7557,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7577,7 +7576,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7596,7 +7595,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7615,7 +7614,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7633,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7653,7 +7652,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7672,7 +7671,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="42" customFormat="1">
       <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7711,7 +7710,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="53" customFormat="1">
       <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7893,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="43" customFormat="1">
       <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7941,7 +7940,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15">
       <c r="B35" s="49" t="s">
         <v>21</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8007,7 +8006,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="36"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8034,7 +8033,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8061,7 +8060,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8088,7 +8087,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8115,7 +8114,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="36"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8142,7 +8141,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8169,7 +8168,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="43" customFormat="1">
       <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B45" s="37" t="s">
         <v>22</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="43" t="b">
         <v>1</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8430,7 +8429,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B55" s="29" t="s">
         <v>21</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8552,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="43" t="b">
         <v>1</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B66" s="29" t="s">
         <v>21</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="43" t="b">
         <v>1</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B77" s="29" t="s">
         <v>21</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B78" s="29" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9075,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="43" customFormat="1">
       <c r="A87" s="43" t="b">
         <v>1</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B88" s="29" t="s">
         <v>21</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B89" s="29" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9278,7 +9277,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="46" t="b">
         <v>1</v>
       </c>
@@ -9308,7 +9307,7 @@
       <c r="Q91" s="43"/>
       <c r="R91" s="43"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="37"/>
       <c r="B92" s="29" t="s">
         <v>21</v>
@@ -9351,7 +9350,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="47"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
@@ -9393,7 +9392,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="47"/>
       <c r="B94" s="29" t="s">
         <v>21</v>
@@ -9436,7 +9435,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="46" t="b">
         <v>1</v>
       </c>
@@ -9466,7 +9465,7 @@
       <c r="Q95" s="43"/>
       <c r="R95" s="43"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="37"/>
       <c r="B96" s="29" t="s">
         <v>21</v>
@@ -9509,7 +9508,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="47"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
@@ -9551,7 +9550,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="47"/>
       <c r="B98" s="29" t="s">
         <v>21</v>
@@ -9593,7 +9592,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="43" t="b">
         <v>1</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="53" customFormat="1">
       <c r="B100" s="53" t="s">
         <v>21</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B101" s="29" t="s">
         <v>21</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="34" customFormat="1">
       <c r="A102" s="34" t="b">
         <v>1</v>
       </c>
@@ -9700,10 +9699,10 @@
         <v>750</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>231</v>
@@ -9711,400 +9710,400 @@
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="60"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10114,7 +10113,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10129,25 +10127,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="57"/>
       <c r="C1" s="5"/>
@@ -10163,7 +10161,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10201,7 +10199,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10240,7 +10238,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10269,14 +10267,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10298,14 +10296,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10327,14 +10325,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10355,14 +10353,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10383,14 +10381,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10411,14 +10409,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10439,14 +10437,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10467,14 +10465,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10495,14 +10493,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10518,14 +10516,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10541,14 +10539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10564,13 +10562,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10585,180 +10583,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10775,19 +10772,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10806,7 +10803,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10827,7 +10824,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10850,7 +10847,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10873,7 +10870,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10896,7 +10893,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10919,7 +10916,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10942,7 +10939,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10965,7 +10962,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10988,7 +10985,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11011,7 +11008,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11030,7 +11027,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11051,7 +11048,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11074,7 +11071,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11097,7 +11094,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11120,7 +11117,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11143,7 +11140,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11166,7 +11163,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11189,7 +11186,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11212,7 +11209,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11235,7 +11232,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11254,7 +11251,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11277,7 +11274,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11300,7 +11297,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11323,7 +11320,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11346,7 +11343,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11369,7 +11366,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11392,7 +11389,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11415,7 +11412,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11438,7 +11435,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11461,7 +11458,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11480,7 +11477,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11501,7 +11498,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11524,7 +11521,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11547,7 +11544,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11570,7 +11567,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11593,7 +11590,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11616,7 +11613,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11639,7 +11636,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11662,7 +11659,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11685,7 +11682,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11704,7 +11701,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11725,7 +11722,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11748,7 +11745,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11771,7 +11768,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11794,7 +11791,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11817,7 +11814,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11840,7 +11837,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11863,7 +11860,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11886,7 +11883,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11909,7 +11906,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11928,7 +11925,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11949,7 +11946,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11972,7 +11969,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11995,7 +11992,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12018,7 +12015,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12041,7 +12038,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12064,7 +12061,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12087,7 +12084,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12110,7 +12107,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12133,7 +12130,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12152,7 +12149,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12173,7 +12170,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12198,7 +12195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12221,7 +12218,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12244,7 +12241,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12267,7 +12264,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12290,7 +12287,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12313,7 +12310,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12336,7 +12333,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12359,7 +12356,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12382,7 +12379,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12401,7 +12398,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12422,7 +12419,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12445,7 +12442,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12470,7 +12467,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12493,7 +12490,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12516,7 +12513,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12539,7 +12536,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12562,7 +12559,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12585,7 +12582,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12608,7 +12605,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12631,7 +12628,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12654,7 +12651,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12677,7 +12674,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12700,7 +12697,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12719,7 +12716,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12742,7 +12739,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12765,7 +12762,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12788,7 +12785,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12811,7 +12808,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12834,7 +12831,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12857,7 +12854,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12880,7 +12877,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12903,7 +12900,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12926,7 +12923,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12949,7 +12946,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12968,7 +12965,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12993,7 +12990,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13012,7 +13009,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13033,7 +13030,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13058,7 +13055,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13077,7 +13074,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13097,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13125,7 +13122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13148,7 +13145,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13169,7 +13166,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13188,7 +13185,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13213,7 +13210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13236,7 +13233,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13259,7 +13256,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13282,7 +13279,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13305,7 +13302,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13328,7 +13325,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13351,7 +13348,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13370,7 +13367,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13393,7 +13390,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13416,7 +13413,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13439,7 +13436,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13458,7 +13455,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13481,7 +13478,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13504,7 +13501,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13527,7 +13524,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13550,7 +13547,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13573,7 +13570,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13596,7 +13593,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13615,7 +13612,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13640,7 +13637,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13663,7 +13660,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13686,7 +13683,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13709,7 +13706,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13732,7 +13729,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13755,7 +13752,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13778,7 +13775,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13801,7 +13798,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13824,7 +13821,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13843,7 +13840,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13868,7 +13865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13889,7 +13886,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13912,7 +13909,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13935,7 +13932,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13958,7 +13955,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13981,7 +13978,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14004,7 +14001,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14027,7 +14024,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14050,7 +14047,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14073,7 +14070,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14096,7 +14093,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14119,7 +14116,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14142,7 +14139,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14165,7 +14162,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14184,7 +14181,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14207,7 +14204,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14226,7 +14223,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14249,7 +14246,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14272,7 +14269,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14291,7 +14288,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14316,7 +14313,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14339,7 +14336,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14362,7 +14359,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14385,7 +14382,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14408,7 +14405,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14431,7 +14428,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14454,7 +14451,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14477,7 +14474,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14500,7 +14497,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14523,7 +14520,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14542,7 +14539,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14567,7 +14564,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14590,7 +14587,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14613,7 +14610,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14636,7 +14633,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14656,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14679,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14705,7 +14702,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14728,7 +14725,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14751,7 +14748,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14774,7 +14771,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14793,7 +14790,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14816,7 +14813,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14839,7 +14836,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14862,7 +14859,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14885,7 +14882,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14904,7 +14901,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14927,7 +14924,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14950,7 +14947,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14973,7 +14970,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14996,7 +14993,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15015,7 +15012,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15036,7 +15033,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15059,7 +15056,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15078,7 +15075,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15101,7 +15098,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15126,7 +15123,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15147,7 +15144,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15172,7 +15169,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15197,7 +15194,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15216,7 +15213,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15241,7 +15238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15264,7 +15261,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15287,7 +15284,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15310,7 +15307,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15333,7 +15330,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15356,7 +15353,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15379,7 +15376,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15402,7 +15399,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15425,7 +15422,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15444,7 +15441,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15469,7 +15466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15492,7 +15489,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15515,7 +15512,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15538,7 +15535,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15561,7 +15558,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15584,7 +15581,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15607,7 +15604,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15630,7 +15627,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15653,7 +15650,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15672,7 +15669,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15693,7 +15690,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15716,7 +15713,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15739,7 +15736,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15762,7 +15759,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15785,7 +15782,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15808,7 +15805,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15831,7 +15828,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15854,7 +15851,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15877,7 +15874,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15900,7 +15897,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15923,7 +15920,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15946,7 +15943,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15969,7 +15966,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15992,7 +15989,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16015,7 +16012,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16038,7 +16035,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16057,7 +16054,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16078,7 +16075,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16101,7 +16098,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16124,7 +16121,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16147,7 +16144,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16170,7 +16167,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16193,7 +16190,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16216,7 +16213,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16239,7 +16236,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16262,7 +16259,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16285,7 +16282,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16308,7 +16305,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16331,7 +16328,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16354,7 +16351,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16377,7 +16374,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16400,7 +16397,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16423,7 +16420,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16442,7 +16439,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16467,7 +16464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16490,7 +16487,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16513,7 +16510,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16536,7 +16533,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16559,7 +16556,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16578,7 +16575,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16603,7 +16600,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16626,7 +16623,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16645,7 +16642,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16664,7 +16661,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16683,7 +16680,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16704,7 +16701,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16727,7 +16724,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16750,7 +16747,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16773,7 +16770,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16796,7 +16793,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16819,7 +16816,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16842,7 +16839,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16865,7 +16862,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16888,7 +16885,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16911,7 +16908,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16934,7 +16931,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16953,7 +16950,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16976,7 +16973,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16995,7 +16992,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17020,7 +17017,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17043,7 +17040,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17066,7 +17063,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17089,7 +17086,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17109,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17132,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17158,7 +17155,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17181,7 +17178,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17204,7 +17201,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17227,7 +17224,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17250,7 +17247,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17269,7 +17266,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17292,7 +17289,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17311,7 +17308,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17332,7 +17329,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17351,7 +17348,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17372,7 +17369,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17391,7 +17388,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17412,7 +17409,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17431,7 +17428,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17454,7 +17451,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17473,7 +17470,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17498,7 +17495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17521,7 +17518,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17544,7 +17541,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17567,7 +17564,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17590,7 +17587,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17613,7 +17610,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17636,7 +17633,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17659,7 +17656,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17682,7 +17679,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17701,7 +17698,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17724,7 +17721,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17747,7 +17744,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17770,7 +17767,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17793,7 +17790,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17812,7 +17809,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17835,7 +17832,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17858,7 +17855,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17883,7 +17880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17902,7 +17899,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17927,7 +17924,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17950,7 +17947,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17969,7 +17966,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17990,7 +17987,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18011,7 +18008,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18034,7 +18031,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18053,7 +18050,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18072,7 +18069,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18097,7 +18094,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18122,7 +18119,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18136,7 +18133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18159,7 +18156,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18179,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18199,7 +18196,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18219,7 +18216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18236,7 +18233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18259,7 +18256,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18282,7 +18279,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18296,7 +18293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18319,7 +18316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18342,7 +18339,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18362,7 +18359,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18382,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18399,7 +18396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18425,7 +18422,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18454,7 +18451,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18493,7 +18490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18507,7 +18504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18527,7 +18524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18541,7 +18538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18561,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18581,7 +18578,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18601,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18621,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18641,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18661,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18681,7 +18678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18701,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18735,7 +18732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18755,7 +18752,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18775,7 +18772,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18791,7 +18788,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18817,7 +18814,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18858,7 +18855,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18872,7 +18869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18892,7 +18889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18906,7 +18903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18928,7 +18925,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18945,17 +18941,17 @@
       <selection activeCell="O17" sqref="O17:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18966,7 +18962,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18980,7 +18976,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18994,7 +18990,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19008,7 +19004,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19022,7 +19018,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19036,7 +19032,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19050,7 +19046,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19064,7 +19060,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19078,7 +19074,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19092,7 +19088,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19106,7 +19102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19117,8 +19113,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19144,7 +19140,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19185,7 +19181,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19226,7 +19222,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19258,7 +19254,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19290,7 +19286,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19319,7 +19315,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19351,7 +19347,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19371,7 +19367,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19394,7 +19390,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19405,7 +19401,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19413,7 +19409,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19426,7 +19422,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
